--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A6/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8994" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17949399-0E39-4C18-9E12-78C6D79D6496}"/>
+  <xr:revisionPtr revIDLastSave="9000" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E990B1D-60C0-4B04-A551-DE19412D40D7}"/>
   <bookViews>
-    <workbookView xWindow="12324" yWindow="660" windowWidth="10716" windowHeight="11364" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="444" yWindow="876" windowWidth="21972" windowHeight="11364" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
     <numFmt numFmtId="166" formatCode="&quot;฿&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -502,8 +502,8 @@
     <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -520,10 +520,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5589,7 +5585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9E66C0-4BB6-4E4D-8D81-CF28180DBCA5}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -6840,9 +6836,9 @@
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
@@ -7060,16 +7056,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B1AB47-488D-4146-A5E5-2603FA89B04E}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
   <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.25" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9000" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E990B1D-60C0-4B04-A551-DE19412D40D7}"/>
+  <xr:revisionPtr revIDLastSave="9025" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9F7A07B-F00A-49E8-8AF6-2D66703A9028}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="876" windowWidth="21972" windowHeight="11364" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8772" yWindow="420" windowWidth="14328" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="114">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>ATM ANNUAL FEE</t>
+  </si>
+  <si>
+    <t>ATM FEE</t>
+  </si>
+  <si>
+    <t>Revenue</t>
   </si>
 </sst>
 </file>
@@ -520,6 +526,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,11 +819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F229" sqref="F229"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F236" sqref="F236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5514,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="F226" s="7">
-        <f t="shared" ref="F226:F229" si="36">F225-D226+E226</f>
+        <f t="shared" ref="F226:F230" si="36">F225-D226+E226</f>
         <v>295417.39134000015</v>
       </c>
     </row>
@@ -5573,6 +5583,151 @@
       <c r="F229" s="20">
         <f t="shared" si="36"/>
         <v>318621.09134000016</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" s="4">
+        <v>45658</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="6">
+        <v>1270.0999999999999</v>
+      </c>
+      <c r="E230" s="6">
+        <v>0</v>
+      </c>
+      <c r="F230" s="10">
+        <f t="shared" si="36"/>
+        <v>317350.99134000018</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" s="4">
+        <v>45668</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" s="6">
+        <v>20</v>
+      </c>
+      <c r="E231" s="6">
+        <v>0</v>
+      </c>
+      <c r="F231" s="7">
+        <f>F230-D231+E231</f>
+        <v>317330.99134000018</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" s="4">
+        <v>45992</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D232" s="6">
+        <v>250</v>
+      </c>
+      <c r="E232" s="6">
+        <v>0</v>
+      </c>
+      <c r="F232" s="7">
+        <f>F231-D232+E232</f>
+        <v>317080.99134000018</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="4">
+        <v>45672</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D233" s="6">
+        <v>432</v>
+      </c>
+      <c r="E233" s="6">
+        <v>0</v>
+      </c>
+      <c r="F233" s="7">
+        <f t="shared" ref="F233:F234" si="37">F232-D233+E233</f>
+        <v>316648.99134000018</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="4"/>
+      <c r="B234" s="4">
+        <v>45678</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D234" s="17">
+        <v>0</v>
+      </c>
+      <c r="E234" s="8">
+        <v>56805.279999999999</v>
+      </c>
+      <c r="F234" s="7">
+        <f t="shared" si="37"/>
+        <v>373454.27134000021</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" s="4">
+        <v>45684</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D235" s="6">
+        <v>0</v>
+      </c>
+      <c r="E235" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F235" s="7">
+        <f>F234-D235+E235</f>
+        <v>383454.27134000021</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" s="4">
+        <v>45684</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D236" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E236" s="6">
+        <v>0</v>
+      </c>
+      <c r="F236" s="20">
+        <f>F235-D236+E236</f>
+        <v>373454.27134000021</v>
       </c>
     </row>
   </sheetData>
@@ -7056,7 +7211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B1AB47-488D-4146-A5E5-2603FA89B04E}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9025" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9F7A07B-F00A-49E8-8AF6-2D66703A9028}"/>
+  <xr:revisionPtr revIDLastSave="9083" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA41F5C7-4A72-42A7-87F5-5F93462C75A0}"/>
   <bookViews>
-    <workbookView xWindow="8772" yWindow="420" windowWidth="14328" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
-    <sheet name="BBL-12" sheetId="10" r:id="rId2"/>
-    <sheet name="BBL-11" sheetId="9" r:id="rId3"/>
-    <sheet name="BBL-10" sheetId="8" r:id="rId4"/>
-    <sheet name="BBL-09" sheetId="6" r:id="rId5"/>
-    <sheet name="BBL-08" sheetId="5" r:id="rId6"/>
-    <sheet name="BBL-07" sheetId="4" r:id="rId7"/>
-    <sheet name="BBL-06" sheetId="3" r:id="rId8"/>
+    <sheet name="BBL-2501" sheetId="11" r:id="rId2"/>
+    <sheet name="BBL-12" sheetId="10" r:id="rId3"/>
+    <sheet name="BBL-11" sheetId="9" r:id="rId4"/>
+    <sheet name="BBL-10" sheetId="8" r:id="rId5"/>
+    <sheet name="BBL-09" sheetId="6" r:id="rId6"/>
+    <sheet name="BBL-08" sheetId="5" r:id="rId7"/>
+    <sheet name="BBL-07" sheetId="4" r:id="rId8"/>
+    <sheet name="BBL-06" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="115">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -385,6 +386,9 @@
   </si>
   <si>
     <t>Revenue</t>
+  </si>
+  <si>
+    <t>TRF PROMPTPAY</t>
   </si>
 </sst>
 </file>
@@ -821,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F236" sqref="F236"/>
     </sheetView>
@@ -5737,11 +5741,400 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB89DD4-6323-413A-8B6D-1549419FC87A}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A2" s="21">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>91518.590000000026</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A3" s="12">
+        <v>45658</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="13">
+        <v>48092</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <f>E2-C3+D3</f>
+        <v>43426.590000000026</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A4" s="21">
+        <v>45839</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="13">
+        <v>497</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E5" si="0">E3-C4+D4</f>
+        <v>42929.590000000026</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A5" s="21">
+        <v>45870</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4017.13</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>46946.720000000023</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A6" s="21">
+        <v>45665</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1900</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" ref="E6:E9" si="1">E5-C6+D6</f>
+        <v>45046.720000000023</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A7" s="21">
+        <v>45666</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1613.93</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>43432.790000000023</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A8" s="21">
+        <v>45666</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="13">
+        <v>22915.82</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
+        <v>20516.970000000023</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A9" s="21">
+        <v>45667</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4017.13</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>16499.840000000022</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A10" s="21">
+        <v>45667</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>49500</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" ref="E10:E11" si="2">E9-C10+D10</f>
+        <v>65999.840000000026</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A11" s="21">
+        <v>45668</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="13">
+        <v>904.27</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="2"/>
+        <v>65095.570000000029</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A12" s="12">
+        <v>45671</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="13">
+        <v>4100</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <f>E11-C12+D12</f>
+        <v>60995.570000000029</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A13" s="21">
+        <v>45672</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1300</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" ref="E13:E17" si="3">E12-C13+D13</f>
+        <v>62295.570000000029</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A14" s="21">
+        <v>45684</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="3"/>
+        <v>72295.570000000036</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A15" s="21">
+        <v>45685</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="3"/>
+        <v>67295.570000000036</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A16" s="21">
+        <v>45685</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" ref="E16" si="4">E15-C16+D16</f>
+        <v>62295.570000000036</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A17" s="12">
+        <v>45688</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="3"/>
+        <v>52295.570000000036</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="C18" s="14">
+        <f>SUM(C2:C17)</f>
+        <v>104040.15000000001</v>
+      </c>
+      <c r="D18" s="14">
+        <f>SUM(D2:D17)</f>
+        <v>64817.13</v>
+      </c>
+      <c r="E18" s="14">
+        <f>D18-C18</f>
+        <v>-39223.020000000011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9E66C0-4BB6-4E4D-8D81-CF28180DBCA5}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -5985,7 +6378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16212024-B527-4E71-813F-F56A1BA91F02}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -6169,7 +6562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ABAF12-386F-44A6-BF32-373190246E09}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -6418,7 +6811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA16D1FE-328D-47F1-975E-F22346AE1C72}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -6730,7 +7123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4711C285-EAD7-45F7-80A2-9E980F42B376}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -6980,7 +7373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7809B0CE-BDFD-409E-B932-F6AE1752F9D3}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -7207,7 +7600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B1AB47-488D-4146-A5E5-2603FA89B04E}">
   <dimension ref="A1:F22"/>
   <sheetViews>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9083" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA41F5C7-4A72-42A7-87F5-5F93462C75A0}"/>
+  <xr:revisionPtr revIDLastSave="9112" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2601460-2FB3-48B3-9765-CCC9F1FFA2FB}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
-    <sheet name="BBL-2501" sheetId="11" r:id="rId2"/>
-    <sheet name="BBL-12" sheetId="10" r:id="rId3"/>
-    <sheet name="BBL-11" sheetId="9" r:id="rId4"/>
-    <sheet name="BBL-10" sheetId="8" r:id="rId5"/>
-    <sheet name="BBL-09" sheetId="6" r:id="rId6"/>
-    <sheet name="BBL-08" sheetId="5" r:id="rId7"/>
-    <sheet name="BBL-07" sheetId="4" r:id="rId8"/>
-    <sheet name="BBL-06" sheetId="3" r:id="rId9"/>
+    <sheet name="BBL-2502" sheetId="12" r:id="rId2"/>
+    <sheet name="BBL-2501" sheetId="11" r:id="rId3"/>
+    <sheet name="BBL-12" sheetId="10" r:id="rId4"/>
+    <sheet name="BBL-11" sheetId="9" r:id="rId5"/>
+    <sheet name="BBL-10" sheetId="8" r:id="rId6"/>
+    <sheet name="BBL-09" sheetId="6" r:id="rId7"/>
+    <sheet name="BBL-08" sheetId="5" r:id="rId8"/>
+    <sheet name="BBL-07" sheetId="4" r:id="rId9"/>
+    <sheet name="BBL-06" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="116">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -389,19 +390,24 @@
   </si>
   <si>
     <t>TRF PROMPTPAY</t>
+  </si>
+  <si>
+    <t>BAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
+  <numFmts count="8">
+    <numFmt numFmtId="187" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="188" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="190" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="191" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="192" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="194" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="196" formatCode="[$฿-41E]#,##0.00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -490,31 +496,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="191" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +539,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,11 +828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F236" sqref="F236"/>
+      <pane ySplit="2" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5734,17 +5739,701 @@
         <v>373454.27134000021</v>
       </c>
     </row>
+    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="4">
+        <v>45701</v>
+      </c>
+      <c r="B237" s="4">
+        <v>45705</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D237" s="15">
+        <v>99219.28</v>
+      </c>
+      <c r="E237" s="8">
+        <v>0</v>
+      </c>
+      <c r="F237" s="7">
+        <f>F236-D237+E237</f>
+        <v>274234.99134000018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B1AB47-488D-4146-A5E5-2603FA89B04E}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.25" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A2" s="12">
+        <v>45444</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>30879.11</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A3" s="12">
+        <v>45452</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="13">
+        <v>393</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <f>E2-C3+D3</f>
+        <v>30486.11</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A4" s="12">
+        <v>45452</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="13">
+        <v>13205.64</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E19" si="0">E3-C4+D4</f>
+        <v>17280.47</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A5" s="12">
+        <v>45453</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3396.97</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>20677.440000000002</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A6" s="12">
+        <v>45453</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7400</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>13277.440000000002</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A7" s="12">
+        <v>45453</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="13">
+        <v>3300</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>9977.4400000000023</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A8" s="12">
+        <v>45453</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>49000</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>58977.440000000002</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A9" s="12">
+        <v>45454</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>181498.8</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>240476.24</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A10" s="12">
+        <v>45454</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>40380.22</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>280856.45999999996</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A11" s="12">
+        <v>45454</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>290856.45999999996</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A12" s="12">
+        <v>45455</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2956.6</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>293813.05999999994</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A13" s="12">
+        <v>45455</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="13">
+        <v>43000</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>250813.05999999994</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A14" s="12">
+        <v>45456</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>260813.05999999994</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A15" s="12">
+        <v>45456</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="13">
+        <v>43000</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="0"/>
+        <v>217813.05999999994</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A16" s="12">
+        <v>45457</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="13">
+        <v>49733.17</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>168079.88999999996</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A17" s="12">
+        <v>45458</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>169379.88999999996</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A18" s="12">
+        <v>45461</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1115</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>168264.88999999996</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A19" s="12">
+        <v>45462</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="13">
+        <v>518</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>167746.88999999996</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A20" s="12">
+        <v>45468</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <v>105.01</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" ref="E20:E21" si="1">E19-C20+D20</f>
+        <v>167851.89999999997</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A21" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="13">
+        <v>192</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>167659.89999999997</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A22" s="12">
+        <v>45473</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" ref="E22" si="2">E21-C22+D22</f>
+        <v>157659.89999999997</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D356AC-3648-48CC-8974-BE1E3BE006E8}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="12.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A2" s="24">
+        <v>45689</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>52295.570000000036</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A3" s="24">
+        <v>45693</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="13">
+        <v>300</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <f>E2-C3+D3</f>
+        <v>51995.570000000036</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A4" s="24">
+        <v>45695</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="13">
+        <v>817</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E7" si="0">E3-C4+D4</f>
+        <v>51178.570000000036</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A5" s="24">
+        <v>45697</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="13">
+        <v>973</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>50205.570000000036</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A6" s="24">
+        <v>45697</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="13">
+        <v>25099.599999999999</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>25105.970000000038</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A7" s="24">
+        <v>45703</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>25000</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>50105.970000000038</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="26">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="C8" s="14">
+        <f>SUM(C2:C7)</f>
+        <v>27189.599999999999</v>
+      </c>
+      <c r="D8" s="14">
+        <f>SUM(D2:D7)</f>
+        <v>25000</v>
+      </c>
+      <c r="E8" s="14">
+        <f>D8-C8</f>
+        <v>-2189.5999999999985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB89DD4-6323-413A-8B6D-1549419FC87A}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -6129,7 +6818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9E66C0-4BB6-4E4D-8D81-CF28180DBCA5}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -6378,7 +7067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16212024-B527-4E71-813F-F56A1BA91F02}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -6562,7 +7251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ABAF12-386F-44A6-BF32-373190246E09}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -6811,7 +7500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA16D1FE-328D-47F1-975E-F22346AE1C72}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -7123,7 +7812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4711C285-EAD7-45F7-80A2-9E980F42B376}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -7373,7 +8062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7809B0CE-BDFD-409E-B932-F6AE1752F9D3}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -7598,483 +8287,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B1AB47-488D-4146-A5E5-2603FA89B04E}">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.25" style="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A2" s="12">
-        <v>45444</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>30879.11</v>
-      </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A3" s="12">
-        <v>45452</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="13">
-        <v>393</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <f>E2-C3+D3</f>
-        <v>30486.11</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A4" s="12">
-        <v>45452</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="13">
-        <v>13205.64</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" ref="E4:E19" si="0">E3-C4+D4</f>
-        <v>17280.47</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A5" s="12">
-        <v>45453</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>3396.97</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>20677.440000000002</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A6" s="12">
-        <v>45453</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="13">
-        <v>7400</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>13277.440000000002</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A7" s="12">
-        <v>45453</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="13">
-        <v>3300</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>9977.4400000000023</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A8" s="12">
-        <v>45453</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
-        <v>49000</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>58977.440000000002</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A9" s="12">
-        <v>45454</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>181498.8</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>240476.24</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A10" s="12">
-        <v>45454</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>40380.22</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>280856.45999999996</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A11" s="12">
-        <v>45454</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
-        <v>10000</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>290856.45999999996</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A12" s="12">
-        <v>45455</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
-        <v>2956.6</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>293813.05999999994</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A13" s="12">
-        <v>45455</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="13">
-        <v>43000</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>250813.05999999994</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A14" s="12">
-        <v>45456</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>10000</v>
-      </c>
-      <c r="E14" s="13">
-        <f t="shared" si="0"/>
-        <v>260813.05999999994</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A15" s="12">
-        <v>45456</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="13">
-        <v>43000</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
-        <f t="shared" si="0"/>
-        <v>217813.05999999994</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A16" s="12">
-        <v>45457</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="13">
-        <v>49733.17</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0</v>
-      </c>
-      <c r="E16" s="13">
-        <f t="shared" si="0"/>
-        <v>168079.88999999996</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A17" s="12">
-        <v>45458</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1300</v>
-      </c>
-      <c r="E17" s="13">
-        <f t="shared" si="0"/>
-        <v>169379.88999999996</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A18" s="12">
-        <v>45461</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1115</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0</v>
-      </c>
-      <c r="E18" s="13">
-        <f t="shared" si="0"/>
-        <v>168264.88999999996</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A19" s="12">
-        <v>45462</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="13">
-        <v>518</v>
-      </c>
-      <c r="D19" s="13">
-        <v>0</v>
-      </c>
-      <c r="E19" s="13">
-        <f t="shared" si="0"/>
-        <v>167746.88999999996</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A20" s="12">
-        <v>45468</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="13">
-        <v>0</v>
-      </c>
-      <c r="D20" s="13">
-        <v>105.01</v>
-      </c>
-      <c r="E20" s="13">
-        <f t="shared" ref="E20:E21" si="1">E19-C20+D20</f>
-        <v>167851.89999999997</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A21" s="12">
-        <v>45471</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="13">
-        <v>192</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13">
-        <f t="shared" si="1"/>
-        <v>167659.89999999997</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A22" s="12">
-        <v>45473</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="13">
-        <v>10000</v>
-      </c>
-      <c r="D22" s="13">
-        <v>0</v>
-      </c>
-      <c r="E22" s="13">
-        <f t="shared" ref="E22" si="2">E21-C22+D22</f>
-        <v>157659.89999999997</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9112" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2601460-2FB3-48B3-9765-CCC9F1FFA2FB}"/>
+  <xr:revisionPtr revIDLastSave="9121" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3251D370-4101-4C51-88B6-EA1D3AD665DC}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="420" windowWidth="19068" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="116">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -400,14 +400,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="187" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="188" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="190" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="191" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="192" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="194" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="196" formatCode="[$฿-41E]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="[$฿-41E]#,##0.00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -499,31 +499,31 @@
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="189" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,11 +828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:G240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E237" sqref="E237"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G244" sqref="G244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5758,6 +5758,69 @@
       <c r="F237" s="7">
         <f>F236-D237+E237</f>
         <v>274234.99134000018</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="4">
+        <v>45701</v>
+      </c>
+      <c r="B238" s="4">
+        <v>45705</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D238" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E238" s="6">
+        <v>0</v>
+      </c>
+      <c r="F238" s="7">
+        <f t="shared" ref="F238" si="38">F237-D238+E238</f>
+        <v>274220.0113400002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="4">
+        <v>45705</v>
+      </c>
+      <c r="B239" s="4">
+        <v>45707</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D239" s="15">
+        <v>29064.23</v>
+      </c>
+      <c r="E239" s="8">
+        <v>0</v>
+      </c>
+      <c r="F239" s="7">
+        <f>F238-D239+E239</f>
+        <v>245155.78134000019</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="4">
+        <v>45705</v>
+      </c>
+      <c r="B240" s="4">
+        <v>45707</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D240" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E240" s="6">
+        <v>0</v>
+      </c>
+      <c r="F240" s="7">
+        <f t="shared" ref="F240" si="39">F239-D240+E240</f>
+        <v>245140.80134000018</v>
       </c>
     </row>
   </sheetData>
@@ -6249,7 +6312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D356AC-3648-48CC-8974-BE1E3BE006E8}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9121" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3251D370-4101-4C51-88B6-EA1D3AD665DC}"/>
+  <xr:revisionPtr revIDLastSave="9167" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44B534CE-3DFB-4461-B126-4BD6C80F735B}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="420" windowWidth="19068" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12120" yWindow="1500" windowWidth="10452" windowHeight="10068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="116">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -400,14 +400,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="[$฿-41E]#,##0.00"/>
+    <numFmt numFmtId="187" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="188" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="190" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="191" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="192" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="193" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="194" formatCode="[$฿-41E]#,##0.00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -496,34 +496,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="191" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,6 +541,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,11 +834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G244" sqref="G244"/>
+      <pane ySplit="2" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A247" sqref="A247:B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5740,24 +5746,24 @@
       </c>
     </row>
     <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="4">
-        <v>45701</v>
+      <c r="A237" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B237" s="4">
-        <v>45705</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D237" s="15">
-        <v>99219.28</v>
-      </c>
-      <c r="E237" s="8">
+        <v>45696</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D237" s="6">
+        <v>20</v>
+      </c>
+      <c r="E237" s="6">
         <v>0</v>
       </c>
       <c r="F237" s="7">
         <f>F236-D237+E237</f>
-        <v>274234.99134000018</v>
+        <v>373434.27134000021</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5767,60 +5773,220 @@
       <c r="B238" s="4">
         <v>45705</v>
       </c>
-      <c r="C238" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D238" s="6">
-        <v>14.98</v>
-      </c>
-      <c r="E238" s="6">
+      <c r="C238" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D238" s="15">
+        <v>99219.28</v>
+      </c>
+      <c r="E238" s="8">
         <v>0</v>
       </c>
       <c r="F238" s="7">
-        <f t="shared" ref="F238" si="38">F237-D238+E238</f>
-        <v>274220.0113400002</v>
+        <f t="shared" ref="F238:F242" si="38">F237-D238+E238</f>
+        <v>274214.99134000018</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4">
+        <v>45701</v>
+      </c>
+      <c r="B239" s="4">
         <v>45705</v>
       </c>
-      <c r="B239" s="4">
+      <c r="C239" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E239" s="6">
+        <v>0</v>
+      </c>
+      <c r="F239" s="7">
+        <f t="shared" si="38"/>
+        <v>274200.0113400002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" s="4">
+        <v>45705</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D240" s="6">
+        <v>432</v>
+      </c>
+      <c r="E240" s="6">
+        <v>0</v>
+      </c>
+      <c r="F240" s="7">
+        <f t="shared" si="38"/>
+        <v>273768.0113400002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B241" s="4">
         <v>45707</v>
       </c>
-      <c r="C239" s="9" t="s">
+      <c r="C241" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D241" s="15">
+        <v>0</v>
+      </c>
+      <c r="E241" s="8">
+        <v>25000</v>
+      </c>
+      <c r="F241" s="7">
+        <f t="shared" si="38"/>
+        <v>298768.0113400002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="4">
+        <v>45705</v>
+      </c>
+      <c r="B242" s="4">
+        <v>45707</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D239" s="15">
+      <c r="D242" s="15">
         <v>29064.23</v>
       </c>
-      <c r="E239" s="8">
-        <v>0</v>
-      </c>
-      <c r="F239" s="7">
-        <f>F238-D239+E239</f>
-        <v>245155.78134000019</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="4">
+      <c r="E242" s="8">
+        <v>0</v>
+      </c>
+      <c r="F242" s="7">
+        <f t="shared" si="38"/>
+        <v>269703.78134000022</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="4">
         <v>45705</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B243" s="4">
         <v>45707</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C243" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D243" s="15">
+        <v>0</v>
+      </c>
+      <c r="E243" s="8">
+        <v>44001.95</v>
+      </c>
+      <c r="F243" s="7">
+        <f t="shared" ref="F243:F244" si="39">F242-D243+E243</f>
+        <v>313705.73134000023</v>
+      </c>
+      <c r="G243" s="27">
+        <f>E243-D242</f>
+        <v>14937.719999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="4">
+        <v>45705</v>
+      </c>
+      <c r="B244" s="4">
+        <v>45707</v>
+      </c>
+      <c r="C244" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D240" s="6">
+      <c r="D244" s="6">
         <v>14.98</v>
       </c>
-      <c r="E240" s="6">
-        <v>0</v>
-      </c>
-      <c r="F240" s="7">
-        <f t="shared" ref="F240" si="39">F239-D240+E240</f>
-        <v>245140.80134000018</v>
+      <c r="E244" s="6">
+        <v>0</v>
+      </c>
+      <c r="F244" s="7">
+        <f t="shared" si="39"/>
+        <v>313690.75134000025</v>
+      </c>
+      <c r="G244" s="27">
+        <f>G243-D244</f>
+        <v>14922.739999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="4">
+        <v>45705</v>
+      </c>
+      <c r="B245" s="4">
+        <v>45707</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D245" s="15">
+        <v>0</v>
+      </c>
+      <c r="E245" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="F245" s="7">
+        <f t="shared" ref="F245:F247" si="40">F244-D245+E245</f>
+        <v>313691.12134000025</v>
+      </c>
+      <c r="G245" s="27">
+        <f>G244+E245</f>
+        <v>14923.109999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="28">
+        <v>45709</v>
+      </c>
+      <c r="B246" s="4">
+        <v>45713</v>
+      </c>
+      <c r="C246" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D246" s="15">
+        <v>43897.387547999999</v>
+      </c>
+      <c r="E246" s="8">
+        <v>0</v>
+      </c>
+      <c r="F246" s="7">
+        <f t="shared" si="40"/>
+        <v>269793.73379200022</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="28">
+        <v>45709</v>
+      </c>
+      <c r="B247" s="4">
+        <v>45713</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D247" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E247" s="6">
+        <v>0</v>
+      </c>
+      <c r="F247" s="7">
+        <f t="shared" si="40"/>
+        <v>269778.75379200024</v>
+      </c>
+      <c r="G247" s="27">
+        <f>G246-D247</f>
+        <v>-14.98</v>
       </c>
     </row>
   </sheetData>
@@ -6310,10 +6476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D356AC-3648-48CC-8974-BE1E3BE006E8}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -6399,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E7" si="0">E3-C4+D4</f>
+        <f t="shared" ref="E4:E10" si="0">E3-C4+D4</f>
         <v>51178.570000000036</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -6450,7 +6616,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" s="24">
-        <v>45703</v>
+        <v>45702</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>91</v>
@@ -6459,11 +6625,11 @@
         <v>0</v>
       </c>
       <c r="D7" s="13">
-        <v>25000</v>
+        <v>1300</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" si="0"/>
-        <v>50105.970000000038</v>
+        <v>26405.970000000038</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>115</v>
@@ -6473,17 +6639,107 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="C8" s="14">
-        <f>SUM(C2:C7)</f>
-        <v>27189.599999999999</v>
-      </c>
-      <c r="D8" s="14">
-        <f>SUM(D2:D7)</f>
+      <c r="A8" s="24">
+        <v>45703</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
         <v>25000</v>
       </c>
-      <c r="E8" s="14">
-        <f>D8-C8</f>
-        <v>-2189.5999999999985</v>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>51405.970000000038</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="26">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A9" s="24">
+        <v>45706</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="13">
+        <v>13322.8</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>38083.170000000042</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A10" s="24">
+        <v>45706</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="13">
+        <v>13322.8</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>24760.370000000043</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A11" s="24">
+        <v>45707</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>25000</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" ref="E11" si="1">E10-C11+D11</f>
+        <v>49760.370000000039</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="26">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="C12" s="14">
+        <f>SUM(C2:C11)</f>
+        <v>53835.199999999997</v>
+      </c>
+      <c r="D12" s="14">
+        <f>SUM(D2:D11)</f>
+        <v>51300</v>
+      </c>
+      <c r="E12" s="14">
+        <f>D12-C12</f>
+        <v>-2535.1999999999971</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9167" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44B534CE-3DFB-4461-B126-4BD6C80F735B}"/>
+  <xr:revisionPtr revIDLastSave="9210" documentId="11_59254FB3F4AABE3ADC949A5AB88E13345563F2D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA8D86F-4525-4E77-A439-F8C5F43B618E}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="1500" windowWidth="10452" windowHeight="10068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6444" yWindow="396" windowWidth="16032" windowHeight="10476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="118">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>BAY</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>TFR TO OTH</t>
   </si>
 </sst>
 </file>
@@ -400,14 +406,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="187" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="188" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="190" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="191" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="192" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="193" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="194" formatCode="[$฿-41E]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="[$฿-41E]#,##0.00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -499,33 +505,33 @@
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="189" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,11 +840,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A247" sqref="A247:B247"/>
+      <pane ySplit="2" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5837,14 +5843,14 @@
         <v>24</v>
       </c>
       <c r="D241" s="15">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="E241" s="8">
-        <v>25000</v>
-      </c>
-      <c r="F241" s="7">
+        <v>0</v>
+      </c>
+      <c r="F241" s="20">
         <f t="shared" si="38"/>
-        <v>298768.0113400002</v>
+        <v>248768.0113400002</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5865,7 +5871,7 @@
       </c>
       <c r="F242" s="7">
         <f t="shared" si="38"/>
-        <v>269703.78134000022</v>
+        <v>219703.78134000019</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5886,12 +5892,9 @@
       </c>
       <c r="F243" s="7">
         <f t="shared" ref="F243:F244" si="39">F242-D243+E243</f>
-        <v>313705.73134000023</v>
-      </c>
-      <c r="G243" s="27">
-        <f>E243-D242</f>
-        <v>14937.719999999998</v>
-      </c>
+        <v>263705.73134000017</v>
+      </c>
+      <c r="G243" s="27"/>
     </row>
     <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4">
@@ -5911,16 +5914,13 @@
       </c>
       <c r="F244" s="7">
         <f t="shared" si="39"/>
-        <v>313690.75134000025</v>
-      </c>
-      <c r="G244" s="27">
-        <f>G243-D244</f>
-        <v>14922.739999999998</v>
-      </c>
+        <v>263690.75134000019</v>
+      </c>
+      <c r="G244" s="27"/>
     </row>
     <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="4">
-        <v>45705</v>
+      <c r="A245" s="28" t="s">
+        <v>6</v>
       </c>
       <c r="B245" s="4">
         <v>45707</v>
@@ -5934,14 +5934,11 @@
       <c r="E245" s="8">
         <v>0.37</v>
       </c>
-      <c r="F245" s="7">
+      <c r="F245" s="20">
         <f t="shared" ref="F245:F247" si="40">F244-D245+E245</f>
-        <v>313691.12134000025</v>
-      </c>
-      <c r="G245" s="27">
-        <f>G244+E245</f>
-        <v>14923.109999999999</v>
-      </c>
+        <v>263691.12134000019</v>
+      </c>
+      <c r="G245" s="27"/>
     </row>
     <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="28">
@@ -5961,7 +5958,7 @@
       </c>
       <c r="F246" s="7">
         <f t="shared" si="40"/>
-        <v>269793.73379200022</v>
+        <v>219793.73379200019</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5982,12 +5979,154 @@
       </c>
       <c r="F247" s="7">
         <f t="shared" si="40"/>
-        <v>269778.75379200024</v>
-      </c>
-      <c r="G247" s="27">
-        <f>G246-D247</f>
-        <v>-14.98</v>
-      </c>
+        <v>219778.75379200018</v>
+      </c>
+      <c r="G247" s="27"/>
+    </row>
+    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="28">
+        <v>45712</v>
+      </c>
+      <c r="B248" s="4">
+        <v>45714</v>
+      </c>
+      <c r="C248" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D248" s="15">
+        <v>0</v>
+      </c>
+      <c r="E248" s="8">
+        <v>105604.67</v>
+      </c>
+      <c r="F248" s="7">
+        <f t="shared" ref="F248:F251" si="41">F247-D248+E248</f>
+        <v>325383.42379200016</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="28">
+        <v>45712</v>
+      </c>
+      <c r="B249" s="4">
+        <v>45714</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E249" s="6">
+        <v>0</v>
+      </c>
+      <c r="F249" s="7">
+        <f t="shared" si="41"/>
+        <v>325368.44379200018</v>
+      </c>
+      <c r="G249" s="27"/>
+    </row>
+    <row r="250" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B250" s="4">
+        <v>45719</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D250" s="15">
+        <v>40500</v>
+      </c>
+      <c r="E250" s="8">
+        <v>0</v>
+      </c>
+      <c r="F250" s="7">
+        <f t="shared" si="41"/>
+        <v>284868.44379200018</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" s="4">
+        <v>45719</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D251" s="15">
+        <v>0</v>
+      </c>
+      <c r="E251" s="8">
+        <v>1.27</v>
+      </c>
+      <c r="F251" s="20">
+        <f t="shared" si="41"/>
+        <v>284869.7137920002</v>
+      </c>
+      <c r="G251" s="27"/>
+    </row>
+    <row r="252" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B252" s="4">
+        <v>45720</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D252" s="15">
+        <v>40500</v>
+      </c>
+      <c r="E252" s="8">
+        <v>0</v>
+      </c>
+      <c r="F252" s="7">
+        <f t="shared" ref="F252:F254" si="42">F251-D252+E252</f>
+        <v>244369.7137920002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="4">
+        <v>45719</v>
+      </c>
+      <c r="B253" s="4">
+        <v>45721</v>
+      </c>
+      <c r="C253" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D253" s="15">
+        <v>0</v>
+      </c>
+      <c r="E253" s="8">
+        <v>28137.54</v>
+      </c>
+      <c r="F253" s="7">
+        <f t="shared" si="42"/>
+        <v>272507.25379200018</v>
+      </c>
+      <c r="G253" s="27"/>
+    </row>
+    <row r="254" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="4">
+        <v>45719</v>
+      </c>
+      <c r="B254" s="4">
+        <v>45721</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="E254" s="6">
+        <v>0</v>
+      </c>
+      <c r="F254" s="7">
+        <f t="shared" si="42"/>
+        <v>272492.2737920002</v>
+      </c>
+      <c r="G254" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6476,9 +6615,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D356AC-3648-48CC-8974-BE1E3BE006E8}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -6718,7 +6857,7 @@
         <v>25000</v>
       </c>
       <c r="E11" s="13">
-        <f t="shared" ref="E11" si="1">E10-C11+D11</f>
+        <f t="shared" ref="E11:E12" si="1">E10-C11+D11</f>
         <v>49760.370000000039</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -6729,16 +6868,37 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="C12" s="14">
+      <c r="A12" s="24">
+        <v>45709</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="13">
+        <v>518</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>49242.370000000039</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="C13" s="14">
         <f>SUM(C2:C11)</f>
         <v>53835.199999999997</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <f>SUM(D2:D11)</f>
         <v>51300</v>
       </c>
-      <c r="E12" s="14">
-        <f>D12-C12</f>
+      <c r="E13" s="14">
+        <f>D13-C13</f>
         <v>-2535.1999999999971</v>
       </c>
     </row>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0098B497-8A97-4E8E-8C83-9BE325ABE492}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E64253-5C15-4B7E-8875-8F614DAFA682}"/>
   <bookViews>
-    <workbookView xWindow="13512" yWindow="612" windowWidth="9480" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7272" yWindow="0" windowWidth="13392" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="132">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -905,11 +905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G367"/>
+  <dimension ref="A1:G370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F367" sqref="F367"/>
+      <selection pane="bottomLeft" activeCell="A370" sqref="A370:B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8622,10 +8622,76 @@
         <v>0</v>
       </c>
       <c r="F367" s="6">
-        <f t="shared" ref="F367" si="72">F366-D367+E367</f>
+        <f t="shared" ref="F367:F368" si="72">F366-D367+E367</f>
         <v>305496.81379200012</v>
       </c>
       <c r="G367" s="25"/>
+    </row>
+    <row r="368" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="32">
+        <v>45874</v>
+      </c>
+      <c r="B368" s="32">
+        <v>45876</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D368" s="14">
+        <v>18841.64</v>
+      </c>
+      <c r="E368" s="7">
+        <v>0</v>
+      </c>
+      <c r="F368" s="6">
+        <f t="shared" si="72"/>
+        <v>286655.1737920001</v>
+      </c>
+      <c r="G368" s="25"/>
+    </row>
+    <row r="369" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="32">
+        <v>45874</v>
+      </c>
+      <c r="B369" s="32">
+        <v>45876</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D369" s="14">
+        <v>0</v>
+      </c>
+      <c r="E369" s="7">
+        <v>18957.919999999998</v>
+      </c>
+      <c r="F369" s="6">
+        <f t="shared" ref="F369:F370" si="73">F368-D369+E369</f>
+        <v>305613.09379200009</v>
+      </c>
+      <c r="G369" s="25"/>
+    </row>
+    <row r="370" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="32">
+        <v>45874</v>
+      </c>
+      <c r="B370" s="32">
+        <v>45876</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D370" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E370" s="5">
+        <v>0</v>
+      </c>
+      <c r="F370" s="6">
+        <f t="shared" si="73"/>
+        <v>305598.11379200011</v>
+      </c>
+      <c r="G370" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E64253-5C15-4B7E-8875-8F614DAFA682}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F37B6EB-7492-43BA-A892-211B35355872}"/>
   <bookViews>
-    <workbookView xWindow="7272" yWindow="0" windowWidth="13392" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8772" yWindow="1476" windowWidth="13524" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="135">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -446,6 +446,15 @@
   </si>
   <si>
     <t>WHAIR</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYNEX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMART </t>
   </si>
 </sst>
 </file>
@@ -905,11 +914,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G370"/>
+  <dimension ref="A1:G378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A370" sqref="A370:B370"/>
+      <pane ySplit="2" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F377" sqref="F377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8692,6 +8701,182 @@
         <v>305598.11379200011</v>
       </c>
       <c r="G370" s="25"/>
+    </row>
+    <row r="371" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="32">
+        <v>45875</v>
+      </c>
+      <c r="B371" s="32">
+        <v>45877</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D371" s="14">
+        <v>0</v>
+      </c>
+      <c r="E371" s="7">
+        <v>22549.95</v>
+      </c>
+      <c r="F371" s="6">
+        <f t="shared" ref="F371" si="74">F370-D371+E371</f>
+        <v>328148.06379200012</v>
+      </c>
+      <c r="G371" s="25"/>
+    </row>
+    <row r="372" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="32">
+        <v>45875</v>
+      </c>
+      <c r="B372" s="32">
+        <v>45877</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D372" s="14">
+        <v>0</v>
+      </c>
+      <c r="E372" s="7">
+        <v>32408.06</v>
+      </c>
+      <c r="F372" s="6">
+        <f t="shared" ref="F372" si="75">F371-D372+E372</f>
+        <v>360556.12379200011</v>
+      </c>
+      <c r="G372" s="25"/>
+    </row>
+    <row r="373" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="32">
+        <v>45875</v>
+      </c>
+      <c r="B373" s="32">
+        <v>45877</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D373" s="14">
+        <v>31569.77</v>
+      </c>
+      <c r="E373" s="7">
+        <v>0</v>
+      </c>
+      <c r="F373" s="6">
+        <f t="shared" ref="F373:F375" si="76">F372-D373+E373</f>
+        <v>328986.3537920001</v>
+      </c>
+      <c r="G373" s="25"/>
+    </row>
+    <row r="374" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="32">
+        <v>45875</v>
+      </c>
+      <c r="B374" s="32">
+        <v>45877</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D374" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E374" s="5">
+        <v>0</v>
+      </c>
+      <c r="F374" s="6">
+        <f t="shared" si="76"/>
+        <v>328971.37379200011</v>
+      </c>
+      <c r="G374" s="25"/>
+    </row>
+    <row r="375" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="32">
+        <v>45876</v>
+      </c>
+      <c r="B375" s="32">
+        <v>45882</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D375" s="14">
+        <v>0</v>
+      </c>
+      <c r="E375" s="7">
+        <v>20554.38</v>
+      </c>
+      <c r="F375" s="6">
+        <f t="shared" si="76"/>
+        <v>349525.75379200012</v>
+      </c>
+      <c r="G375" s="25"/>
+    </row>
+    <row r="376" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="32">
+        <v>45876</v>
+      </c>
+      <c r="B376" s="32">
+        <v>45882</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D376" s="14">
+        <v>29665.56</v>
+      </c>
+      <c r="E376" s="7">
+        <v>0</v>
+      </c>
+      <c r="F376" s="6">
+        <f t="shared" ref="F376" si="77">F375-D376+E376</f>
+        <v>319860.19379200012</v>
+      </c>
+      <c r="G376" s="25"/>
+    </row>
+    <row r="377" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="32">
+        <v>45876</v>
+      </c>
+      <c r="B377" s="32">
+        <v>45882</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D377" s="14">
+        <v>0</v>
+      </c>
+      <c r="E377" s="7">
+        <v>30013.37</v>
+      </c>
+      <c r="F377" s="6">
+        <f t="shared" ref="F377:F378" si="78">F376-D377+E377</f>
+        <v>349873.56379200012</v>
+      </c>
+      <c r="G377" s="25"/>
+    </row>
+    <row r="378" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="32">
+        <v>45876</v>
+      </c>
+      <c r="B378" s="32">
+        <v>45882</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D378" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E378" s="5">
+        <v>0</v>
+      </c>
+      <c r="F378" s="6">
+        <f t="shared" si="78"/>
+        <v>349858.58379200014</v>
+      </c>
+      <c r="G378" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F37B6EB-7492-43BA-A892-211B35355872}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{299DBAE9-F9F1-4F05-9CEC-145FBB1589A6}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8772" yWindow="1476" windowWidth="13524" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="12468" windowHeight="8076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="138">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -455,6 +455,15 @@
   </si>
   <si>
     <t xml:space="preserve">JMART </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIMIRT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL </t>
   </si>
 </sst>
 </file>
@@ -914,11 +923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G378"/>
+  <dimension ref="A1:G383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F377" sqref="F377"/>
+      <pane ySplit="2" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F382" sqref="F382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8851,7 +8860,7 @@
         <v>30013.37</v>
       </c>
       <c r="F377" s="6">
-        <f t="shared" ref="F377:F378" si="78">F376-D377+E377</f>
+        <f t="shared" ref="F377:F379" si="78">F376-D377+E377</f>
         <v>349873.56379200012</v>
       </c>
       <c r="G377" s="25"/>
@@ -8877,6 +8886,116 @@
         <v>349858.58379200014</v>
       </c>
       <c r="G378" s="25"/>
+    </row>
+    <row r="379" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="32">
+        <v>45877</v>
+      </c>
+      <c r="B379" s="32">
+        <v>45883</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D379" s="14">
+        <v>24804.82</v>
+      </c>
+      <c r="E379" s="7">
+        <v>0</v>
+      </c>
+      <c r="F379" s="6">
+        <f t="shared" si="78"/>
+        <v>325053.76379200013</v>
+      </c>
+      <c r="G379" s="25"/>
+    </row>
+    <row r="380" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="32">
+        <v>45877</v>
+      </c>
+      <c r="B380" s="32">
+        <v>45883</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D380" s="14">
+        <v>80177.19</v>
+      </c>
+      <c r="E380" s="7">
+        <v>0</v>
+      </c>
+      <c r="F380" s="6">
+        <f t="shared" ref="F380:F382" si="79">F379-D380+E380</f>
+        <v>244876.57379200013</v>
+      </c>
+      <c r="G380" s="25"/>
+    </row>
+    <row r="381" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="32">
+        <v>45877</v>
+      </c>
+      <c r="B381" s="32">
+        <v>45883</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D381" s="14">
+        <v>0</v>
+      </c>
+      <c r="E381" s="7">
+        <v>92794.01</v>
+      </c>
+      <c r="F381" s="6">
+        <f t="shared" si="79"/>
+        <v>337670.58379200014</v>
+      </c>
+      <c r="G381" s="25"/>
+    </row>
+    <row r="382" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="32">
+        <v>45877</v>
+      </c>
+      <c r="B382" s="32">
+        <v>45883</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D382" s="14">
+        <v>0</v>
+      </c>
+      <c r="E382" s="7">
+        <v>40110.97</v>
+      </c>
+      <c r="F382" s="6">
+        <f t="shared" ref="F382" si="80">F381-D382+E382</f>
+        <v>377781.55379200017</v>
+      </c>
+      <c r="G382" s="25"/>
+    </row>
+    <row r="383" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="32">
+        <v>45877</v>
+      </c>
+      <c r="B383" s="32">
+        <v>45883</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D383" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E383" s="5">
+        <v>0</v>
+      </c>
+      <c r="F383" s="6">
+        <f t="shared" ref="F383" si="81">F382-D383+E383</f>
+        <v>377766.57379200018</v>
+      </c>
+      <c r="G383" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{299DBAE9-F9F1-4F05-9CEC-145FBB1589A6}"/>
+  <xr:revisionPtr revIDLastSave="351" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F573B2B2-8A6D-44DB-88DE-1DECA4E885A4}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="12468" windowHeight="8076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12504" yWindow="0" windowWidth="10536" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="138">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -471,14 +471,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="168" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="[$฿-41E]#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="187" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="190" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="191" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="192" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="193" formatCode="[$฿-41E]#,##0.00"/>
+    <numFmt numFmtId="194" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -548,7 +548,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -583,38 +583,38 @@
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,10 +630,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,11 +919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G383"/>
+  <dimension ref="A1:G384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F382" sqref="F382"/>
+      <pane ySplit="2" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8772,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="F373" s="6">
-        <f t="shared" ref="F373:F375" si="76">F372-D373+E373</f>
+        <f t="shared" ref="F373:F374" si="76">F372-D373+E373</f>
         <v>328986.3537920001</v>
       </c>
       <c r="G373" s="25"/>
@@ -8800,26 +8796,25 @@
       <c r="G374" s="25"/>
     </row>
     <row r="375" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="32">
-        <v>45876</v>
+      <c r="A375" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="B375" s="32">
-        <v>45882</v>
-      </c>
-      <c r="C375" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D375" s="14">
-        <v>0</v>
-      </c>
-      <c r="E375" s="7">
-        <v>20554.38</v>
+        <v>45879</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D375" s="5">
+        <v>20</v>
+      </c>
+      <c r="E375" s="5">
+        <v>0</v>
       </c>
       <c r="F375" s="6">
-        <f t="shared" si="76"/>
-        <v>349525.75379200012</v>
-      </c>
-      <c r="G375" s="25"/>
+        <f>F374-D375+E375</f>
+        <v>328951.37379200011</v>
+      </c>
     </row>
     <row r="376" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="32">
@@ -8829,17 +8824,17 @@
         <v>45882</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="D376" s="14">
-        <v>29665.56</v>
+        <v>0</v>
       </c>
       <c r="E376" s="7">
-        <v>0</v>
+        <v>20554.38</v>
       </c>
       <c r="F376" s="6">
-        <f t="shared" ref="F376" si="77">F375-D376+E376</f>
-        <v>319860.19379200012</v>
+        <f t="shared" ref="F376:F384" si="77">F375-D376+E376</f>
+        <v>349505.75379200012</v>
       </c>
       <c r="G376" s="25"/>
     </row>
@@ -8854,14 +8849,14 @@
         <v>134</v>
       </c>
       <c r="D377" s="14">
-        <v>0</v>
+        <v>29665.56</v>
       </c>
       <c r="E377" s="7">
-        <v>30013.37</v>
+        <v>0</v>
       </c>
       <c r="F377" s="6">
-        <f t="shared" ref="F377:F379" si="78">F376-D377+E377</f>
-        <v>349873.56379200012</v>
+        <f t="shared" si="77"/>
+        <v>319840.19379200012</v>
       </c>
       <c r="G377" s="25"/>
     </row>
@@ -8872,40 +8867,40 @@
       <c r="B378" s="32">
         <v>45882</v>
       </c>
-      <c r="C378" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D378" s="5">
-        <v>14.98</v>
-      </c>
-      <c r="E378" s="5">
-        <v>0</v>
+      <c r="C378" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D378" s="14">
+        <v>0</v>
+      </c>
+      <c r="E378" s="7">
+        <v>30013.37</v>
       </c>
       <c r="F378" s="6">
-        <f t="shared" si="78"/>
-        <v>349858.58379200014</v>
+        <f t="shared" si="77"/>
+        <v>349853.56379200012</v>
       </c>
       <c r="G378" s="25"/>
     </row>
     <row r="379" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="32">
-        <v>45877</v>
+        <v>45876</v>
       </c>
       <c r="B379" s="32">
-        <v>45883</v>
-      </c>
-      <c r="C379" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D379" s="14">
-        <v>24804.82</v>
-      </c>
-      <c r="E379" s="7">
+        <v>45882</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D379" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E379" s="5">
         <v>0</v>
       </c>
       <c r="F379" s="6">
-        <f t="shared" si="78"/>
-        <v>325053.76379200013</v>
+        <f t="shared" si="77"/>
+        <v>349838.58379200014</v>
       </c>
       <c r="G379" s="25"/>
     </row>
@@ -8917,17 +8912,17 @@
         <v>45883</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D380" s="14">
-        <v>80177.19</v>
+        <v>24804.82</v>
       </c>
       <c r="E380" s="7">
         <v>0</v>
       </c>
       <c r="F380" s="6">
-        <f t="shared" ref="F380:F382" si="79">F379-D380+E380</f>
-        <v>244876.57379200013</v>
+        <f t="shared" si="77"/>
+        <v>325033.76379200013</v>
       </c>
       <c r="G380" s="25"/>
     </row>
@@ -8939,17 +8934,17 @@
         <v>45883</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D381" s="14">
-        <v>0</v>
+        <v>80177.19</v>
       </c>
       <c r="E381" s="7">
-        <v>92794.01</v>
+        <v>0</v>
       </c>
       <c r="F381" s="6">
-        <f t="shared" si="79"/>
-        <v>337670.58379200014</v>
+        <f t="shared" si="77"/>
+        <v>244856.57379200013</v>
       </c>
       <c r="G381" s="25"/>
     </row>
@@ -8961,17 +8956,17 @@
         <v>45883</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="D382" s="14">
         <v>0</v>
       </c>
       <c r="E382" s="7">
-        <v>40110.97</v>
+        <v>92794.01</v>
       </c>
       <c r="F382" s="6">
-        <f t="shared" ref="F382" si="80">F381-D382+E382</f>
-        <v>377781.55379200017</v>
+        <f t="shared" si="77"/>
+        <v>337650.58379200014</v>
       </c>
       <c r="G382" s="25"/>
     </row>
@@ -8982,20 +8977,42 @@
       <c r="B383" s="32">
         <v>45883</v>
       </c>
-      <c r="C383" s="4" t="s">
+      <c r="C383" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D383" s="14">
+        <v>0</v>
+      </c>
+      <c r="E383" s="7">
+        <v>40110.97</v>
+      </c>
+      <c r="F383" s="6">
+        <f t="shared" si="77"/>
+        <v>377761.55379200017</v>
+      </c>
+      <c r="G383" s="25"/>
+    </row>
+    <row r="384" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="32">
+        <v>45877</v>
+      </c>
+      <c r="B384" s="32">
+        <v>45883</v>
+      </c>
+      <c r="C384" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D383" s="5">
+      <c r="D384" s="5">
         <v>14.98</v>
       </c>
-      <c r="E383" s="5">
-        <v>0</v>
-      </c>
-      <c r="F383" s="6">
-        <f t="shared" ref="F383" si="81">F382-D383+E383</f>
-        <v>377766.57379200018</v>
-      </c>
-      <c r="G383" s="25"/>
+      <c r="E384" s="5">
+        <v>0</v>
+      </c>
+      <c r="F384" s="6">
+        <f t="shared" si="77"/>
+        <v>377746.57379200018</v>
+      </c>
+      <c r="G384" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="351" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F573B2B2-8A6D-44DB-88DE-1DECA4E885A4}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51F3AB52-C3C1-466A-ABC5-C818BC7781BE}"/>
   <bookViews>
-    <workbookView xWindow="12504" yWindow="0" windowWidth="10536" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12336" yWindow="2292" windowWidth="9768" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="138">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -471,14 +471,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="187" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="189" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="190" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="191" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="192" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="193" formatCode="[$฿-41E]#,##0.00"/>
-    <numFmt numFmtId="194" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="168" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="[$฿-41E]#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -548,7 +548,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -583,38 +583,38 @@
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,6 +630,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,11 +923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G384"/>
+  <dimension ref="A1:G386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
+      <selection pane="bottomLeft" activeCell="A386" sqref="A386:B386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9013,6 +9017,50 @@
         <v>377746.57379200018</v>
       </c>
       <c r="G384" s="25"/>
+    </row>
+    <row r="385" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="32">
+        <v>45882</v>
+      </c>
+      <c r="B385" s="32">
+        <v>45884</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D385" s="14">
+        <v>24554.27</v>
+      </c>
+      <c r="E385" s="7">
+        <v>0</v>
+      </c>
+      <c r="F385" s="6">
+        <f t="shared" ref="F385:F386" si="78">F384-D385+E385</f>
+        <v>353192.30379200017</v>
+      </c>
+      <c r="G385" s="25"/>
+    </row>
+    <row r="386" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="32">
+        <v>45882</v>
+      </c>
+      <c r="B386" s="32">
+        <v>45884</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D386" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E386" s="5">
+        <v>0</v>
+      </c>
+      <c r="F386" s="6">
+        <f t="shared" si="78"/>
+        <v>353177.32379200018</v>
+      </c>
+      <c r="G386" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51F3AB52-C3C1-466A-ABC5-C818BC7781BE}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{718B8B7F-6930-4C6A-BE74-9AD0F47C665F}"/>
   <bookViews>
-    <workbookView xWindow="12336" yWindow="2292" windowWidth="9768" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8256" yWindow="0" windowWidth="10752" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="138">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -923,11 +923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G386"/>
+  <dimension ref="A1:G388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A386" sqref="A386:B386"/>
+      <selection pane="bottomLeft" activeCell="E387" sqref="E387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9061,6 +9061,50 @@
         <v>353177.32379200018</v>
       </c>
       <c r="G386" s="25"/>
+    </row>
+    <row r="387" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="32">
+        <v>45883</v>
+      </c>
+      <c r="B387" s="32">
+        <v>45887</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D387" s="14">
+        <v>84687.16</v>
+      </c>
+      <c r="E387" s="7">
+        <v>0</v>
+      </c>
+      <c r="F387" s="6">
+        <f t="shared" ref="F387:F388" si="79">F386-D387+E387</f>
+        <v>268490.16379200015</v>
+      </c>
+      <c r="G387" s="25"/>
+    </row>
+    <row r="388" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="32">
+        <v>45882</v>
+      </c>
+      <c r="B388" s="32">
+        <v>45884</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D388" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E388" s="5">
+        <v>0</v>
+      </c>
+      <c r="F388" s="6">
+        <f t="shared" si="79"/>
+        <v>268475.18379200017</v>
+      </c>
+      <c r="G388" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{718B8B7F-6930-4C6A-BE74-9AD0F47C665F}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{800BB48A-72E0-476A-9AEB-EB5014CB1ED8}"/>
   <bookViews>
-    <workbookView xWindow="8256" yWindow="0" windowWidth="10752" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9696" yWindow="1320" windowWidth="12552" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -926,8 +926,8 @@
   <dimension ref="A1:G388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E387" sqref="E387"/>
+      <pane ySplit="2" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F386" sqref="F386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8399,7 +8399,7 @@
         <v>22150.83</v>
       </c>
       <c r="F356" s="6">
-        <f t="shared" ref="F356:F366" si="71">F355-D356+E356</f>
+        <f t="shared" ref="F356:F388" si="71">F355-D356+E356</f>
         <v>205173.99379200011</v>
       </c>
       <c r="G356" s="25"/>
@@ -8420,32 +8420,33 @@
       <c r="E357" s="5">
         <v>0</v>
       </c>
-      <c r="F357" s="6">
+      <c r="F357" s="9">
         <f t="shared" si="71"/>
         <v>205159.0137920001</v>
       </c>
       <c r="G357" s="25"/>
     </row>
     <row r="358" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="32" t="s">
-        <v>6</v>
+      <c r="A358" s="32">
+        <v>45862</v>
       </c>
       <c r="B358" s="32">
-        <v>45860</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D358" s="5">
-        <v>432</v>
-      </c>
-      <c r="E358" s="5">
-        <v>0</v>
+        <v>45866</v>
+      </c>
+      <c r="C358" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D358" s="14">
+        <v>0</v>
+      </c>
+      <c r="E358" s="7">
+        <v>22350.38</v>
       </c>
       <c r="F358" s="6">
         <f t="shared" si="71"/>
-        <v>204727.0137920001</v>
-      </c>
+        <v>227509.3937920001</v>
+      </c>
+      <c r="G358" s="25"/>
     </row>
     <row r="359" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="32">
@@ -8454,62 +8455,62 @@
       <c r="B359" s="32">
         <v>45866</v>
       </c>
-      <c r="C359" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D359" s="14">
-        <v>0</v>
-      </c>
-      <c r="E359" s="7">
-        <v>22350.38</v>
+      <c r="C359" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D359" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E359" s="5">
+        <v>0</v>
       </c>
       <c r="F359" s="6">
         <f t="shared" si="71"/>
-        <v>227077.3937920001</v>
+        <v>227494.41379200009</v>
       </c>
       <c r="G359" s="25"/>
     </row>
     <row r="360" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="32">
-        <v>45862</v>
+      <c r="A360" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="B360" s="32">
-        <v>45866</v>
-      </c>
-      <c r="C360" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D360" s="5">
-        <v>14.98</v>
-      </c>
-      <c r="E360" s="5">
+        <v>45869</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D360" s="14">
+        <v>38000</v>
+      </c>
+      <c r="E360" s="26">
         <v>0</v>
       </c>
       <c r="F360" s="6">
         <f t="shared" si="71"/>
-        <v>227062.41379200009</v>
+        <v>189494.41379200009</v>
       </c>
       <c r="G360" s="25"/>
     </row>
     <row r="361" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="17" t="s">
-        <v>6</v>
+      <c r="A361" s="32">
+        <v>45867</v>
       </c>
       <c r="B361" s="32">
         <v>45869</v>
       </c>
-      <c r="C361" s="8" t="s">
-        <v>8</v>
+      <c r="C361" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="D361" s="14">
-        <v>38000</v>
-      </c>
-      <c r="E361" s="26">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E361" s="7">
+        <v>22849.279999999999</v>
       </c>
       <c r="F361" s="6">
         <f t="shared" si="71"/>
-        <v>189062.41379200009</v>
+        <v>212343.69379200009</v>
       </c>
       <c r="G361" s="25"/>
     </row>
@@ -8520,40 +8521,40 @@
       <c r="B362" s="32">
         <v>45869</v>
       </c>
-      <c r="C362" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D362" s="14">
-        <v>0</v>
-      </c>
-      <c r="E362" s="7">
-        <v>22849.279999999999</v>
+      <c r="C362" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D362" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E362" s="5">
+        <v>0</v>
       </c>
       <c r="F362" s="6">
         <f t="shared" si="71"/>
-        <v>211911.69379200009</v>
+        <v>212328.71379200008</v>
       </c>
       <c r="G362" s="25"/>
     </row>
     <row r="363" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="32">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B363" s="32">
-        <v>45869</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D363" s="5">
-        <v>14.98</v>
-      </c>
-      <c r="E363" s="5">
-        <v>0</v>
+        <v>45870</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D363" s="14">
+        <v>0</v>
+      </c>
+      <c r="E363" s="7">
+        <v>41128.699999999997</v>
       </c>
       <c r="F363" s="6">
         <f t="shared" si="71"/>
-        <v>211896.71379200008</v>
+        <v>253457.41379200009</v>
       </c>
       <c r="G363" s="25"/>
     </row>
@@ -8565,17 +8566,17 @@
         <v>45870</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="D364" s="14">
         <v>0</v>
       </c>
       <c r="E364" s="7">
-        <v>41128.699999999997</v>
+        <v>54878.18</v>
       </c>
       <c r="F364" s="6">
         <f t="shared" si="71"/>
-        <v>253025.41379200009</v>
+        <v>308335.59379200009</v>
       </c>
       <c r="G364" s="25"/>
     </row>
@@ -8586,62 +8587,62 @@
       <c r="B365" s="32">
         <v>45870</v>
       </c>
-      <c r="C365" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D365" s="14">
-        <v>0</v>
-      </c>
-      <c r="E365" s="7">
-        <v>54878.18</v>
+      <c r="C365" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D365" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E365" s="5">
+        <v>0</v>
       </c>
       <c r="F365" s="6">
         <f t="shared" si="71"/>
-        <v>307903.59379200009</v>
+        <v>308320.61379200011</v>
       </c>
       <c r="G365" s="25"/>
     </row>
     <row r="366" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A366" s="32">
-        <v>45868</v>
+      <c r="A366" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="B366" s="32">
         <v>45870</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D366" s="5">
-        <v>14.98</v>
+        <v>2391.8000000000002</v>
       </c>
       <c r="E366" s="5">
         <v>0</v>
       </c>
       <c r="F366" s="6">
         <f t="shared" si="71"/>
-        <v>307888.61379200011</v>
+        <v>305928.81379200012</v>
       </c>
       <c r="G366" s="25"/>
     </row>
     <row r="367" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A367" s="32" t="s">
-        <v>6</v>
+      <c r="A367" s="32">
+        <v>45874</v>
       </c>
       <c r="B367" s="32">
-        <v>45870</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D367" s="5">
-        <v>2391.8000000000002</v>
-      </c>
-      <c r="E367" s="5">
+        <v>45876</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D367" s="14">
+        <v>18841.64</v>
+      </c>
+      <c r="E367" s="7">
         <v>0</v>
       </c>
       <c r="F367" s="6">
-        <f t="shared" ref="F367:F368" si="72">F366-D367+E367</f>
-        <v>305496.81379200012</v>
+        <f t="shared" si="71"/>
+        <v>287087.1737920001</v>
       </c>
       <c r="G367" s="25"/>
     </row>
@@ -8656,14 +8657,14 @@
         <v>72</v>
       </c>
       <c r="D368" s="14">
-        <v>18841.64</v>
+        <v>0</v>
       </c>
       <c r="E368" s="7">
-        <v>0</v>
+        <v>18957.919999999998</v>
       </c>
       <c r="F368" s="6">
-        <f t="shared" si="72"/>
-        <v>286655.1737920001</v>
+        <f t="shared" si="71"/>
+        <v>306045.09379200009</v>
       </c>
       <c r="G368" s="25"/>
     </row>
@@ -8674,40 +8675,40 @@
       <c r="B369" s="32">
         <v>45876</v>
       </c>
-      <c r="C369" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D369" s="14">
-        <v>0</v>
-      </c>
-      <c r="E369" s="7">
-        <v>18957.919999999998</v>
+      <c r="C369" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D369" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E369" s="5">
+        <v>0</v>
       </c>
       <c r="F369" s="6">
-        <f t="shared" ref="F369:F370" si="73">F368-D369+E369</f>
-        <v>305613.09379200009</v>
+        <f t="shared" si="71"/>
+        <v>306030.11379200011</v>
       </c>
       <c r="G369" s="25"/>
     </row>
     <row r="370" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="32">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B370" s="32">
-        <v>45876</v>
-      </c>
-      <c r="C370" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D370" s="5">
-        <v>14.98</v>
-      </c>
-      <c r="E370" s="5">
-        <v>0</v>
+        <v>45877</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D370" s="14">
+        <v>0</v>
+      </c>
+      <c r="E370" s="7">
+        <v>22549.95</v>
       </c>
       <c r="F370" s="6">
-        <f t="shared" si="73"/>
-        <v>305598.11379200011</v>
+        <f t="shared" si="71"/>
+        <v>328580.06379200012</v>
       </c>
       <c r="G370" s="25"/>
     </row>
@@ -8719,17 +8720,17 @@
         <v>45877</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="D371" s="14">
         <v>0</v>
       </c>
       <c r="E371" s="7">
-        <v>22549.95</v>
+        <v>32408.06</v>
       </c>
       <c r="F371" s="6">
-        <f t="shared" ref="F371" si="74">F370-D371+E371</f>
-        <v>328148.06379200012</v>
+        <f t="shared" si="71"/>
+        <v>360988.12379200011</v>
       </c>
       <c r="G371" s="25"/>
     </row>
@@ -8741,17 +8742,17 @@
         <v>45877</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="D372" s="14">
-        <v>0</v>
+        <v>31569.77</v>
       </c>
       <c r="E372" s="7">
-        <v>32408.06</v>
+        <v>0</v>
       </c>
       <c r="F372" s="6">
-        <f t="shared" ref="F372" si="75">F371-D372+E372</f>
-        <v>360556.12379200011</v>
+        <f t="shared" si="71"/>
+        <v>329418.3537920001</v>
       </c>
       <c r="G372" s="25"/>
     </row>
@@ -8762,63 +8763,63 @@
       <c r="B373" s="32">
         <v>45877</v>
       </c>
-      <c r="C373" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D373" s="14">
-        <v>31569.77</v>
-      </c>
-      <c r="E373" s="7">
+      <c r="C373" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D373" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E373" s="5">
         <v>0</v>
       </c>
       <c r="F373" s="6">
-        <f t="shared" ref="F373:F374" si="76">F372-D373+E373</f>
-        <v>328986.3537920001</v>
+        <f t="shared" si="71"/>
+        <v>329403.37379200011</v>
       </c>
       <c r="G373" s="25"/>
     </row>
     <row r="374" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A374" s="32">
-        <v>45875</v>
+      <c r="A374" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="B374" s="32">
-        <v>45877</v>
+        <v>45878</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D374" s="5">
-        <v>14.98</v>
+        <v>20</v>
       </c>
       <c r="E374" s="5">
         <v>0</v>
       </c>
       <c r="F374" s="6">
-        <f t="shared" si="76"/>
-        <v>328971.37379200011</v>
-      </c>
-      <c r="G374" s="25"/>
+        <f t="shared" si="71"/>
+        <v>329383.37379200011</v>
+      </c>
     </row>
     <row r="375" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="32" t="s">
-        <v>6</v>
+      <c r="A375" s="32">
+        <v>45876</v>
       </c>
       <c r="B375" s="32">
-        <v>45879</v>
-      </c>
-      <c r="C375" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D375" s="5">
-        <v>20</v>
-      </c>
-      <c r="E375" s="5">
-        <v>0</v>
+        <v>45882</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D375" s="14">
+        <v>0</v>
+      </c>
+      <c r="E375" s="7">
+        <v>20554.38</v>
       </c>
       <c r="F375" s="6">
-        <f>F374-D375+E375</f>
-        <v>328951.37379200011</v>
-      </c>
+        <f t="shared" si="71"/>
+        <v>349937.75379200012</v>
+      </c>
+      <c r="G375" s="25"/>
     </row>
     <row r="376" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="32">
@@ -8828,17 +8829,17 @@
         <v>45882</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D376" s="14">
-        <v>0</v>
+        <v>29665.56</v>
       </c>
       <c r="E376" s="7">
-        <v>20554.38</v>
+        <v>0</v>
       </c>
       <c r="F376" s="6">
-        <f t="shared" ref="F376:F384" si="77">F375-D376+E376</f>
-        <v>349505.75379200012</v>
+        <f t="shared" si="71"/>
+        <v>320272.19379200012</v>
       </c>
       <c r="G376" s="25"/>
     </row>
@@ -8853,14 +8854,14 @@
         <v>134</v>
       </c>
       <c r="D377" s="14">
-        <v>29665.56</v>
+        <v>0</v>
       </c>
       <c r="E377" s="7">
-        <v>0</v>
+        <v>30013.37</v>
       </c>
       <c r="F377" s="6">
-        <f t="shared" si="77"/>
-        <v>319840.19379200012</v>
+        <f t="shared" si="71"/>
+        <v>350285.56379200012</v>
       </c>
       <c r="G377" s="25"/>
     </row>
@@ -8871,40 +8872,40 @@
       <c r="B378" s="32">
         <v>45882</v>
       </c>
-      <c r="C378" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D378" s="14">
-        <v>0</v>
-      </c>
-      <c r="E378" s="7">
-        <v>30013.37</v>
+      <c r="C378" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D378" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E378" s="5">
+        <v>0</v>
       </c>
       <c r="F378" s="6">
-        <f t="shared" si="77"/>
-        <v>349853.56379200012</v>
+        <f t="shared" si="71"/>
+        <v>350270.58379200014</v>
       </c>
       <c r="G378" s="25"/>
     </row>
     <row r="379" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="32">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B379" s="32">
-        <v>45882</v>
-      </c>
-      <c r="C379" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D379" s="5">
-        <v>14.98</v>
-      </c>
-      <c r="E379" s="5">
+        <v>45883</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D379" s="14">
+        <v>24804.82</v>
+      </c>
+      <c r="E379" s="7">
         <v>0</v>
       </c>
       <c r="F379" s="6">
-        <f t="shared" si="77"/>
-        <v>349838.58379200014</v>
+        <f t="shared" si="71"/>
+        <v>325465.76379200013</v>
       </c>
       <c r="G379" s="25"/>
     </row>
@@ -8916,17 +8917,17 @@
         <v>45883</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D380" s="14">
-        <v>24804.82</v>
+        <v>80177.19</v>
       </c>
       <c r="E380" s="7">
         <v>0</v>
       </c>
       <c r="F380" s="6">
-        <f t="shared" si="77"/>
-        <v>325033.76379200013</v>
+        <f t="shared" si="71"/>
+        <v>245288.57379200013</v>
       </c>
       <c r="G380" s="25"/>
     </row>
@@ -8938,17 +8939,17 @@
         <v>45883</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D381" s="14">
-        <v>80177.19</v>
+        <v>0</v>
       </c>
       <c r="E381" s="7">
-        <v>0</v>
+        <v>92794.01</v>
       </c>
       <c r="F381" s="6">
-        <f t="shared" si="77"/>
-        <v>244856.57379200013</v>
+        <f t="shared" si="71"/>
+        <v>338082.58379200014</v>
       </c>
       <c r="G381" s="25"/>
     </row>
@@ -8960,17 +8961,17 @@
         <v>45883</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="D382" s="14">
         <v>0</v>
       </c>
       <c r="E382" s="7">
-        <v>92794.01</v>
+        <v>40110.97</v>
       </c>
       <c r="F382" s="6">
-        <f t="shared" si="77"/>
-        <v>337650.58379200014</v>
+        <f t="shared" si="71"/>
+        <v>378193.55379200017</v>
       </c>
       <c r="G382" s="25"/>
     </row>
@@ -8981,40 +8982,40 @@
       <c r="B383" s="32">
         <v>45883</v>
       </c>
-      <c r="C383" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D383" s="14">
-        <v>0</v>
-      </c>
-      <c r="E383" s="7">
-        <v>40110.97</v>
+      <c r="C383" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D383" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E383" s="5">
+        <v>0</v>
       </c>
       <c r="F383" s="6">
-        <f t="shared" si="77"/>
-        <v>377761.55379200017</v>
+        <f t="shared" si="71"/>
+        <v>378178.57379200018</v>
       </c>
       <c r="G383" s="25"/>
     </row>
     <row r="384" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="32">
-        <v>45877</v>
+        <v>45882</v>
       </c>
       <c r="B384" s="32">
-        <v>45883</v>
-      </c>
-      <c r="C384" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D384" s="5">
-        <v>14.98</v>
-      </c>
-      <c r="E384" s="5">
+        <v>45884</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D384" s="14">
+        <v>24554.27</v>
+      </c>
+      <c r="E384" s="7">
         <v>0</v>
       </c>
       <c r="F384" s="6">
-        <f t="shared" si="77"/>
-        <v>377746.57379200018</v>
+        <f t="shared" si="71"/>
+        <v>353624.30379200017</v>
       </c>
       <c r="G384" s="25"/>
     </row>
@@ -9025,42 +9026,41 @@
       <c r="B385" s="32">
         <v>45884</v>
       </c>
-      <c r="C385" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D385" s="14">
-        <v>24554.27</v>
-      </c>
-      <c r="E385" s="7">
+      <c r="C385" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D385" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E385" s="5">
         <v>0</v>
       </c>
       <c r="F385" s="6">
-        <f t="shared" ref="F385:F386" si="78">F384-D385+E385</f>
-        <v>353192.30379200017</v>
+        <f t="shared" si="71"/>
+        <v>353609.32379200018</v>
       </c>
       <c r="G385" s="25"/>
     </row>
     <row r="386" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A386" s="32">
-        <v>45882</v>
+      <c r="A386" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="B386" s="32">
         <v>45884</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D386" s="5">
-        <v>14.98</v>
+        <v>432</v>
       </c>
       <c r="E386" s="5">
         <v>0</v>
       </c>
-      <c r="F386" s="6">
-        <f t="shared" si="78"/>
+      <c r="F386" s="9">
+        <f t="shared" si="71"/>
         <v>353177.32379200018</v>
       </c>
-      <c r="G386" s="25"/>
     </row>
     <row r="387" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="32">
@@ -9079,17 +9079,17 @@
         <v>0</v>
       </c>
       <c r="F387" s="6">
-        <f t="shared" ref="F387:F388" si="79">F386-D387+E387</f>
+        <f t="shared" si="71"/>
         <v>268490.16379200015</v>
       </c>
       <c r="G387" s="25"/>
     </row>
     <row r="388" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="32">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B388" s="32">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>11</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="F388" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="71"/>
         <v>268475.18379200017</v>
       </c>
       <c r="G388" s="25"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{800BB48A-72E0-476A-9AEB-EB5014CB1ED8}"/>
+  <xr:revisionPtr revIDLastSave="390" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD37E81-042E-4F7A-BE77-17DD16191F5A}"/>
   <bookViews>
-    <workbookView xWindow="9696" yWindow="1320" windowWidth="12552" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11904" yWindow="1668" windowWidth="10692" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="141">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -464,6 +464,15 @@
   </si>
   <si>
     <t xml:space="preserve">RCL </t>
+  </si>
+  <si>
+    <t>RCL</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>ORI-W2</t>
   </si>
 </sst>
 </file>
@@ -923,11 +932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G388"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F386" sqref="F386"/>
+      <pane ySplit="2" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F392" sqref="F392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9105,6 +9114,94 @@
         <v>268475.18379200017</v>
       </c>
       <c r="G388" s="25"/>
+    </row>
+    <row r="389" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="32">
+        <v>45887</v>
+      </c>
+      <c r="B389" s="32">
+        <v>45889</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D389" s="14">
+        <v>84186.05</v>
+      </c>
+      <c r="E389" s="7">
+        <v>0</v>
+      </c>
+      <c r="F389" s="6">
+        <f t="shared" ref="F389" si="72">F388-D389+E389</f>
+        <v>184289.13379200018</v>
+      </c>
+      <c r="G389" s="25"/>
+    </row>
+    <row r="390" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="32">
+        <v>45887</v>
+      </c>
+      <c r="B390" s="32">
+        <v>45889</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D390" s="14">
+        <v>96613.52</v>
+      </c>
+      <c r="E390" s="7">
+        <v>0</v>
+      </c>
+      <c r="F390" s="6">
+        <f t="shared" ref="F390" si="73">F389-D390+E390</f>
+        <v>87675.613792000178</v>
+      </c>
+      <c r="G390" s="25"/>
+    </row>
+    <row r="391" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="32">
+        <v>45887</v>
+      </c>
+      <c r="B391" s="32">
+        <v>45889</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D391" s="14">
+        <v>0</v>
+      </c>
+      <c r="E391" s="7">
+        <v>11474.43</v>
+      </c>
+      <c r="F391" s="6">
+        <f t="shared" ref="F391" si="74">F390-D391+E391</f>
+        <v>99150.043792000186</v>
+      </c>
+      <c r="G391" s="25"/>
+    </row>
+    <row r="392" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="32">
+        <v>45887</v>
+      </c>
+      <c r="B392" s="32">
+        <v>45889</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D392" s="14">
+        <v>0</v>
+      </c>
+      <c r="E392" s="7">
+        <v>5687.33</v>
+      </c>
+      <c r="F392" s="6">
+        <f t="shared" ref="F392" si="75">F391-D392+E392</f>
+        <v>104837.37379200019</v>
+      </c>
+      <c r="G392" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD37E81-042E-4F7A-BE77-17DD16191F5A}"/>
+  <xr:revisionPtr revIDLastSave="392" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5201554-32D1-4F72-874B-76411F50AD24}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11904" yWindow="1668" windowWidth="10692" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12444" yWindow="1284" windowWidth="9948" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="141">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -480,14 +480,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="168" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="[$฿-41E]#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="187" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="190" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="191" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="192" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="193" formatCode="[$฿-41E]#,##0.00"/>
+    <numFmt numFmtId="194" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -557,7 +557,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -592,38 +592,38 @@
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +639,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -932,11 +928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F392" sqref="F392"/>
+      <selection pane="bottomLeft" activeCell="A393" sqref="A393:B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9198,10 +9194,32 @@
         <v>5687.33</v>
       </c>
       <c r="F392" s="6">
-        <f t="shared" ref="F392" si="75">F391-D392+E392</f>
+        <f t="shared" ref="F392:F393" si="75">F391-D392+E392</f>
         <v>104837.37379200019</v>
       </c>
       <c r="G392" s="25"/>
+    </row>
+    <row r="393" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="32">
+        <v>45887</v>
+      </c>
+      <c r="B393" s="32">
+        <v>45889</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D393" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E393" s="5">
+        <v>0</v>
+      </c>
+      <c r="F393" s="6">
+        <f t="shared" si="75"/>
+        <v>104822.39379200019</v>
+      </c>
+      <c r="G393" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="392" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5201554-32D1-4F72-874B-76411F50AD24}"/>
+  <xr:revisionPtr revIDLastSave="399" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A672345-D458-4E96-9EE3-8BA33B0A0E93}"/>
   <bookViews>
-    <workbookView xWindow="12444" yWindow="1284" windowWidth="9948" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10104" yWindow="1320" windowWidth="11448" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="141">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -480,14 +480,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="187" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="189" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="190" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="191" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="192" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="193" formatCode="[$฿-41E]#,##0.00"/>
-    <numFmt numFmtId="194" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="168" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="[$฿-41E]#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -557,7 +557,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -592,38 +592,38 @@
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,6 +639,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -928,11 +932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G393"/>
+  <dimension ref="A1:G395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A393" sqref="A393:B393"/>
+      <selection pane="bottomLeft" activeCell="A395" sqref="A395:B395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9194,7 +9198,7 @@
         <v>5687.33</v>
       </c>
       <c r="F392" s="6">
-        <f t="shared" ref="F392:F393" si="75">F391-D392+E392</f>
+        <f t="shared" ref="F392:F394" si="75">F391-D392+E392</f>
         <v>104837.37379200019</v>
       </c>
       <c r="G392" s="25"/>
@@ -9220,6 +9224,50 @@
         <v>104822.39379200019</v>
       </c>
       <c r="G393" s="25"/>
+    </row>
+    <row r="394" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="32">
+        <v>45889</v>
+      </c>
+      <c r="B394" s="32">
+        <v>45891</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D394" s="14">
+        <v>0</v>
+      </c>
+      <c r="E394" s="7">
+        <v>96984.72</v>
+      </c>
+      <c r="F394" s="6">
+        <f t="shared" si="75"/>
+        <v>201807.11379200019</v>
+      </c>
+      <c r="G394" s="25"/>
+    </row>
+    <row r="395" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="32">
+        <v>45889</v>
+      </c>
+      <c r="B395" s="32">
+        <v>45891</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D395" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E395" s="5">
+        <v>0</v>
+      </c>
+      <c r="F395" s="6">
+        <f t="shared" ref="F395" si="76">F394-D395+E395</f>
+        <v>201792.13379200018</v>
+      </c>
+      <c r="G395" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="399" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A672345-D458-4E96-9EE3-8BA33B0A0E93}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF8DA64-DBCB-4246-A0D3-B355507A4285}"/>
   <bookViews>
-    <workbookView xWindow="10104" yWindow="1320" windowWidth="11448" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10452" yWindow="1668" windowWidth="11448" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="141">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -932,11 +932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G395"/>
+  <dimension ref="A1:G397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A395" sqref="A395:B395"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9264,10 +9264,54 @@
         <v>0</v>
       </c>
       <c r="F395" s="6">
-        <f t="shared" ref="F395" si="76">F394-D395+E395</f>
+        <f t="shared" ref="F395:F397" si="76">F394-D395+E395</f>
         <v>201792.13379200018</v>
       </c>
       <c r="G395" s="25"/>
+    </row>
+    <row r="396" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="32">
+        <v>45890</v>
+      </c>
+      <c r="B396" s="32">
+        <v>45894</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D396" s="14">
+        <v>96613.52</v>
+      </c>
+      <c r="E396" s="7">
+        <v>0</v>
+      </c>
+      <c r="F396" s="6">
+        <f t="shared" si="76"/>
+        <v>105178.61379200018</v>
+      </c>
+      <c r="G396" s="25"/>
+    </row>
+    <row r="397" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="32">
+        <v>45890</v>
+      </c>
+      <c r="B397" s="32">
+        <v>45894</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D397" s="14">
+        <v>0</v>
+      </c>
+      <c r="E397" s="7">
+        <v>96984.72</v>
+      </c>
+      <c r="F397" s="6">
+        <f t="shared" si="76"/>
+        <v>202163.33379200019</v>
+      </c>
+      <c r="G397" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF8DA64-DBCB-4246-A0D3-B355507A4285}"/>
+  <xr:revisionPtr revIDLastSave="414" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB278B5E-2470-43EC-ACC4-D5C6A7B9835B}"/>
   <bookViews>
-    <workbookView xWindow="10452" yWindow="1668" windowWidth="11448" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10104" yWindow="1320" windowWidth="11448" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="141">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -932,11 +932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G397"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E401" sqref="E401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9312,6 +9312,94 @@
         <v>202163.33379200019</v>
       </c>
       <c r="G397" s="25"/>
+    </row>
+    <row r="398" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="32">
+        <v>45890</v>
+      </c>
+      <c r="B398" s="32">
+        <v>45894</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D398" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E398" s="5">
+        <v>0</v>
+      </c>
+      <c r="F398" s="6">
+        <f t="shared" ref="F398:F400" si="77">F397-D398+E398</f>
+        <v>202148.35379200018</v>
+      </c>
+      <c r="G398" s="25"/>
+    </row>
+    <row r="399" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="32">
+        <v>45890</v>
+      </c>
+      <c r="B399" s="32">
+        <v>45894</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D399" s="14">
+        <v>120766.9</v>
+      </c>
+      <c r="E399" s="7">
+        <v>0</v>
+      </c>
+      <c r="F399" s="6">
+        <f t="shared" si="77"/>
+        <v>81381.453792000189</v>
+      </c>
+      <c r="G399" s="25"/>
+    </row>
+    <row r="400" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="32">
+        <v>45890</v>
+      </c>
+      <c r="B400" s="32">
+        <v>45894</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D400" s="14">
+        <v>0</v>
+      </c>
+      <c r="E400" s="7">
+        <v>121230.88</v>
+      </c>
+      <c r="F400" s="6">
+        <f t="shared" si="77"/>
+        <v>202612.33379200019</v>
+      </c>
+      <c r="G400" s="25"/>
+    </row>
+    <row r="401" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="32">
+        <v>45890</v>
+      </c>
+      <c r="B401" s="32">
+        <v>45894</v>
+      </c>
+      <c r="C401" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D401" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E401" s="5">
+        <v>0</v>
+      </c>
+      <c r="F401" s="6">
+        <f t="shared" ref="F401" si="78">F400-D401+E401</f>
+        <v>202597.35379200018</v>
+      </c>
+      <c r="G401" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="414" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB278B5E-2470-43EC-ACC4-D5C6A7B9835B}"/>
+  <xr:revisionPtr revIDLastSave="418" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52B61D7B-C7AC-42C7-BB7B-35A50C0215F9}"/>
   <bookViews>
-    <workbookView xWindow="10104" yWindow="1320" windowWidth="11448" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11952" yWindow="0" windowWidth="11928" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -480,14 +480,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="168" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="[$฿-41E]#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="187" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="190" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="191" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="192" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="193" formatCode="[$฿-41E]#,##0.00"/>
+    <numFmt numFmtId="194" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -557,7 +557,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -592,38 +592,38 @@
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +639,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -935,8 +931,8 @@
   <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E401" sqref="E401"/>
+      <pane ySplit="2" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G400" sqref="G400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -946,7 +942,7 @@
     <col min="4" max="4" width="16.375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="7" customWidth="1"/>
     <col min="6" max="6" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="10.125" style="3"/>
     <col min="12" max="12" width="10.25" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.125" style="3"/>
@@ -9311,7 +9307,10 @@
         <f t="shared" si="76"/>
         <v>202163.33379200019</v>
       </c>
-      <c r="G397" s="25"/>
+      <c r="G397" s="25">
+        <f>E397-D396-D398</f>
+        <v>356.21999999999707</v>
+      </c>
     </row>
     <row r="398" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="32">
@@ -9377,7 +9376,10 @@
         <f t="shared" si="77"/>
         <v>202612.33379200019</v>
       </c>
-      <c r="G400" s="25"/>
+      <c r="G400" s="25">
+        <f>E400-D399-D401</f>
+        <v>449.00000000001046</v>
+      </c>
     </row>
     <row r="401" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="32">

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="418" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52B61D7B-C7AC-42C7-BB7B-35A50C0215F9}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D46EBEC5-1A11-40B6-9446-DA58449E11C5}"/>
   <bookViews>
-    <workbookView xWindow="11952" yWindow="0" windowWidth="11928" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10500" yWindow="2280" windowWidth="11364" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="142">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>ORI-W2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCS </t>
   </si>
 </sst>
 </file>
@@ -480,14 +483,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="187" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="189" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="190" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="191" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="192" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="193" formatCode="[$฿-41E]#,##0.00"/>
-    <numFmt numFmtId="194" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="168" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="[$฿-41E]#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -557,7 +560,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -592,38 +595,38 @@
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,6 +642,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -928,11 +935,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G401"/>
+  <dimension ref="A1:G405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G400" sqref="G400"/>
+      <pane ySplit="2" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F404" sqref="F404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9307,10 +9314,7 @@
         <f t="shared" si="76"/>
         <v>202163.33379200019</v>
       </c>
-      <c r="G397" s="25">
-        <f>E397-D396-D398</f>
-        <v>356.21999999999707</v>
-      </c>
+      <c r="G397" s="25"/>
     </row>
     <row r="398" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="32">
@@ -9376,10 +9380,7 @@
         <f t="shared" si="77"/>
         <v>202612.33379200019</v>
       </c>
-      <c r="G400" s="25">
-        <f>E400-D399-D401</f>
-        <v>449.00000000001046</v>
-      </c>
+      <c r="G400" s="25"/>
     </row>
     <row r="401" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="32">
@@ -9398,10 +9399,98 @@
         <v>0</v>
       </c>
       <c r="F401" s="6">
-        <f t="shared" ref="F401" si="78">F400-D401+E401</f>
+        <f t="shared" ref="F401:F402" si="78">F400-D401+E401</f>
         <v>202597.35379200018</v>
       </c>
       <c r="G401" s="25"/>
+    </row>
+    <row r="402" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="32">
+        <v>45895</v>
+      </c>
+      <c r="B402" s="32">
+        <v>45897</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D402" s="14">
+        <v>120766.9</v>
+      </c>
+      <c r="E402" s="7">
+        <v>0</v>
+      </c>
+      <c r="F402" s="6">
+        <f t="shared" si="78"/>
+        <v>81830.453792000189</v>
+      </c>
+      <c r="G402" s="25"/>
+    </row>
+    <row r="403" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="32">
+        <v>45895</v>
+      </c>
+      <c r="B403" s="32">
+        <v>45897</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D403" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E403" s="5">
+        <v>0</v>
+      </c>
+      <c r="F403" s="6">
+        <f t="shared" ref="F403:F405" si="79">F402-D403+E403</f>
+        <v>81815.473792000193</v>
+      </c>
+      <c r="G403" s="25"/>
+    </row>
+    <row r="404" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="32">
+        <v>45896</v>
+      </c>
+      <c r="B404" s="32">
+        <v>45898</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D404" s="14">
+        <v>0</v>
+      </c>
+      <c r="E404" s="7">
+        <v>50288.37</v>
+      </c>
+      <c r="F404" s="6">
+        <f t="shared" si="79"/>
+        <v>132103.8437920002</v>
+      </c>
+      <c r="G404" s="25"/>
+    </row>
+    <row r="405" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="32">
+        <v>45890</v>
+      </c>
+      <c r="B405" s="32">
+        <v>45894</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D405" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E405" s="5">
+        <v>0</v>
+      </c>
+      <c r="F405" s="6">
+        <f t="shared" si="79"/>
+        <v>132088.86379200019</v>
+      </c>
+      <c r="G405" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D46EBEC5-1A11-40B6-9446-DA58449E11C5}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51AE74B3-5B9B-41F2-88F7-E838331B83E9}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="2280" windowWidth="11364" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="2040" windowWidth="11292" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="142">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -935,11 +935,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G405"/>
+  <dimension ref="A1:G407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F404" sqref="F404"/>
+      <selection pane="bottomLeft" activeCell="A407" sqref="A407:B407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="F403" s="6">
-        <f t="shared" ref="F403:F405" si="79">F402-D403+E403</f>
+        <f t="shared" ref="F403:F406" si="79">F402-D403+E403</f>
         <v>81815.473792000193</v>
       </c>
       <c r="G403" s="25"/>
@@ -9491,6 +9491,50 @@
         <v>132088.86379200019</v>
       </c>
       <c r="G405" s="25"/>
+    </row>
+    <row r="406" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="32">
+        <v>45897</v>
+      </c>
+      <c r="B406" s="32">
+        <v>45901</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D406" s="14">
+        <v>11024.36</v>
+      </c>
+      <c r="E406" s="7">
+        <v>0</v>
+      </c>
+      <c r="F406" s="6">
+        <f t="shared" si="79"/>
+        <v>121064.50379200019</v>
+      </c>
+      <c r="G406" s="25"/>
+    </row>
+    <row r="407" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="32">
+        <v>45897</v>
+      </c>
+      <c r="B407" s="32">
+        <v>45901</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D407" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E407" s="5">
+        <v>0</v>
+      </c>
+      <c r="F407" s="6">
+        <f t="shared" ref="F407" si="80">F406-D407+E407</f>
+        <v>121049.5237920002</v>
+      </c>
+      <c r="G407" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="436" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51AE74B3-5B9B-41F2-88F7-E838331B83E9}"/>
+  <xr:revisionPtr revIDLastSave="478" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D82D92-E61B-45BC-9C43-AF9512380077}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="2040" windowWidth="11292" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9792" yWindow="0" windowWidth="13332" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="144">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -476,6 +476,12 @@
   </si>
   <si>
     <t xml:space="preserve">MCS </t>
+  </si>
+  <si>
+    <t>PTT</t>
+  </si>
+  <si>
+    <t>WHART-Refund</t>
   </si>
 </sst>
 </file>
@@ -935,11 +941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G407"/>
+  <dimension ref="A1:G419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A407" sqref="A407:B407"/>
+      <pane ySplit="2" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C420" sqref="C420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9443,74 +9449,70 @@
         <v>0</v>
       </c>
       <c r="F403" s="6">
-        <f t="shared" ref="F403:F406" si="79">F402-D403+E403</f>
+        <f t="shared" ref="F403:F411" si="79">F402-D403+E403</f>
         <v>81815.473792000193</v>
       </c>
       <c r="G403" s="25"/>
     </row>
     <row r="404" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A404" s="32">
-        <v>45896</v>
-      </c>
+      <c r="A404" s="32"/>
       <c r="B404" s="32">
-        <v>45898</v>
-      </c>
-      <c r="C404" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D404" s="14">
-        <v>0</v>
-      </c>
-      <c r="E404" s="7">
-        <v>50288.37</v>
+        <v>45897</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5">
+        <v>1350</v>
       </c>
       <c r="F404" s="6">
         <f t="shared" si="79"/>
-        <v>132103.8437920002</v>
+        <v>83165.473792000193</v>
       </c>
       <c r="G404" s="25"/>
     </row>
     <row r="405" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="32">
-        <v>45890</v>
+        <v>45896</v>
       </c>
       <c r="B405" s="32">
-        <v>45894</v>
-      </c>
-      <c r="C405" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D405" s="5">
-        <v>14.98</v>
-      </c>
-      <c r="E405" s="5">
-        <v>0</v>
+        <v>45898</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D405" s="14">
+        <v>0</v>
+      </c>
+      <c r="E405" s="7">
+        <v>50288.37</v>
       </c>
       <c r="F405" s="6">
         <f t="shared" si="79"/>
-        <v>132088.86379200019</v>
+        <v>133453.8437920002</v>
       </c>
       <c r="G405" s="25"/>
     </row>
     <row r="406" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="32">
-        <v>45897</v>
+        <v>45890</v>
       </c>
       <c r="B406" s="32">
-        <v>45901</v>
-      </c>
-      <c r="C406" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D406" s="14">
-        <v>11024.36</v>
-      </c>
-      <c r="E406" s="7">
+        <v>45894</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D406" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E406" s="5">
         <v>0</v>
       </c>
       <c r="F406" s="6">
         <f t="shared" si="79"/>
-        <v>121064.50379200019</v>
+        <v>133438.86379200019</v>
       </c>
       <c r="G406" s="25"/>
     </row>
@@ -9521,20 +9523,254 @@
       <c r="B407" s="32">
         <v>45901</v>
       </c>
-      <c r="C407" s="4" t="s">
+      <c r="C407" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D407" s="14">
+        <v>11024.36</v>
+      </c>
+      <c r="E407" s="7">
+        <v>0</v>
+      </c>
+      <c r="F407" s="6">
+        <f t="shared" si="79"/>
+        <v>122414.50379200019</v>
+      </c>
+      <c r="G407" s="25"/>
+    </row>
+    <row r="408" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="32">
+        <v>45897</v>
+      </c>
+      <c r="B408" s="32">
+        <v>45901</v>
+      </c>
+      <c r="C408" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D407" s="5">
+      <c r="D408" s="5">
         <v>14.98</v>
       </c>
-      <c r="E407" s="5">
-        <v>0</v>
-      </c>
-      <c r="F407" s="6">
-        <f t="shared" ref="F407" si="80">F406-D407+E407</f>
-        <v>121049.5237920002</v>
-      </c>
-      <c r="G407" s="25"/>
+      <c r="E408" s="5">
+        <v>0</v>
+      </c>
+      <c r="F408" s="6">
+        <f t="shared" si="79"/>
+        <v>122399.5237920002</v>
+      </c>
+      <c r="G408" s="25"/>
+    </row>
+    <row r="409" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B409" s="32">
+        <v>45901</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D409" s="5">
+        <v>222.14</v>
+      </c>
+      <c r="E409" s="5">
+        <v>0</v>
+      </c>
+      <c r="F409" s="6">
+        <f t="shared" si="79"/>
+        <v>122177.3837920002</v>
+      </c>
+      <c r="G409" s="25"/>
+    </row>
+    <row r="410" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="32">
+        <v>45901</v>
+      </c>
+      <c r="B410" s="32">
+        <v>45903</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D410" s="14">
+        <v>77671.66</v>
+      </c>
+      <c r="E410" s="7">
+        <v>0</v>
+      </c>
+      <c r="F410" s="6">
+        <f t="shared" si="79"/>
+        <v>44505.723792000193</v>
+      </c>
+      <c r="G410" s="25"/>
+    </row>
+    <row r="411" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="32">
+        <v>45901</v>
+      </c>
+      <c r="B411" s="32">
+        <v>45903</v>
+      </c>
+      <c r="C411" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D411" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E411" s="5">
+        <v>0</v>
+      </c>
+      <c r="F411" s="6">
+        <f t="shared" si="79"/>
+        <v>44490.74379200019</v>
+      </c>
+      <c r="G411" s="25"/>
+    </row>
+    <row r="412" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="32"/>
+      <c r="B412" s="32">
+        <v>45903</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5">
+        <v>20864.25</v>
+      </c>
+      <c r="F412" s="6">
+        <f t="shared" ref="F412" si="80">F411-D412+E412</f>
+        <v>65354.99379200019</v>
+      </c>
+      <c r="G412" s="25"/>
+    </row>
+    <row r="413" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="32"/>
+      <c r="B413" s="32">
+        <v>45903</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D413" s="5">
+        <v>4172.8500000000004</v>
+      </c>
+      <c r="E413" s="5">
+        <v>0</v>
+      </c>
+      <c r="F413" s="6">
+        <f t="shared" ref="F413" si="81">F412-D413+E413</f>
+        <v>61182.143792000192</v>
+      </c>
+      <c r="G413" s="25"/>
+    </row>
+    <row r="414" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B414" s="33">
+        <v>45905</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D414" s="5">
+        <v>0</v>
+      </c>
+      <c r="E414" s="5">
+        <v>3228.75</v>
+      </c>
+      <c r="F414" s="6">
+        <f t="shared" ref="F414:F418" si="82">F413-D414+E414</f>
+        <v>64410.893792000192</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B415" s="33">
+        <v>45905</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D415" s="5">
+        <v>0</v>
+      </c>
+      <c r="E415" s="5">
+        <v>1350</v>
+      </c>
+      <c r="F415" s="6">
+        <f t="shared" si="82"/>
+        <v>65760.893792000192</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B416" s="33">
+        <v>45905</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D416" s="5">
+        <v>0</v>
+      </c>
+      <c r="E416" s="5">
+        <v>12825</v>
+      </c>
+      <c r="F416" s="6">
+        <f t="shared" si="82"/>
+        <v>78585.893792000192</v>
+      </c>
+    </row>
+    <row r="417" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B417" s="33">
+        <v>45905</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D417" s="5">
+        <v>0</v>
+      </c>
+      <c r="E417" s="5">
+        <v>5760</v>
+      </c>
+      <c r="F417" s="6">
+        <f t="shared" si="82"/>
+        <v>84345.893792000192</v>
+      </c>
+    </row>
+    <row r="418" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B418" s="33">
+        <v>45905</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D418" s="5">
+        <v>0</v>
+      </c>
+      <c r="E418" s="5">
+        <v>3863.25</v>
+      </c>
+      <c r="F418" s="6">
+        <f t="shared" si="82"/>
+        <v>88209.143792000192</v>
+      </c>
+    </row>
+    <row r="419" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B419" s="33">
+        <v>45905</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D419" s="5">
+        <v>0</v>
+      </c>
+      <c r="E419" s="5">
+        <v>532.5</v>
+      </c>
+      <c r="F419" s="6">
+        <f t="shared" ref="F419" si="83">F418-D419+E419</f>
+        <v>88741.643792000192</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="478" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D82D92-E61B-45BC-9C43-AF9512380077}"/>
+  <xr:revisionPtr revIDLastSave="484" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD7F2BF4-CFF3-4C66-9FF4-019FA87D9065}"/>
   <bookViews>
-    <workbookView xWindow="9792" yWindow="0" windowWidth="13332" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12372" yWindow="1200" windowWidth="10716" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="144">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -941,11 +941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G419"/>
+  <dimension ref="A1:G421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C420" sqref="C420"/>
+      <pane ySplit="2" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F420" sqref="F420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9718,7 +9718,7 @@
         <v>78585.893792000192</v>
       </c>
     </row>
-    <row r="417" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="33">
         <v>45905</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>84345.893792000192</v>
       </c>
     </row>
-    <row r="418" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B418" s="33">
         <v>45905</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>88209.143792000192</v>
       </c>
     </row>
-    <row r="419" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="33">
         <v>45905</v>
       </c>
@@ -9768,9 +9768,53 @@
         <v>532.5</v>
       </c>
       <c r="F419" s="6">
-        <f t="shared" ref="F419" si="83">F418-D419+E419</f>
+        <f t="shared" ref="F419:F421" si="83">F418-D419+E419</f>
         <v>88741.643792000192</v>
       </c>
+    </row>
+    <row r="420" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="32">
+        <v>45903</v>
+      </c>
+      <c r="B420" s="32">
+        <v>45905</v>
+      </c>
+      <c r="C420" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D420" s="14">
+        <v>0</v>
+      </c>
+      <c r="E420" s="7">
+        <v>41407.730000000003</v>
+      </c>
+      <c r="F420" s="6">
+        <f t="shared" si="83"/>
+        <v>130149.3737920002</v>
+      </c>
+      <c r="G420" s="25"/>
+    </row>
+    <row r="421" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="32">
+        <v>45903</v>
+      </c>
+      <c r="B421" s="32">
+        <v>45905</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D421" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E421" s="5">
+        <v>0</v>
+      </c>
+      <c r="F421" s="6">
+        <f t="shared" si="83"/>
+        <v>130134.39379200021</v>
+      </c>
+      <c r="G421" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="484" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD7F2BF4-CFF3-4C66-9FF4-019FA87D9065}"/>
+  <xr:revisionPtr revIDLastSave="508" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5986881C-0ACF-4FDA-B38E-BCBD102C93B4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12372" yWindow="1200" windowWidth="10716" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11976" yWindow="756" windowWidth="10128" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="145">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>WHART-Refund</t>
+  </si>
+  <si>
+    <t>A/C</t>
   </si>
 </sst>
 </file>
@@ -941,11 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G421"/>
+  <dimension ref="A1:G427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F420" sqref="F420"/>
+      <pane ySplit="2" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F427" sqref="F427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9659,63 +9662,69 @@
         <v>0</v>
       </c>
       <c r="F413" s="6">
-        <f t="shared" ref="F413" si="81">F412-D413+E413</f>
+        <f t="shared" ref="F413:F414" si="81">F412-D413+E413</f>
         <v>61182.143792000192</v>
       </c>
       <c r="G413" s="25"/>
     </row>
     <row r="414" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B414" s="33">
-        <v>45905</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D414" s="5">
-        <v>0</v>
-      </c>
-      <c r="E414" s="5">
-        <v>3228.75</v>
+      <c r="A414" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B414" s="32">
+        <v>45903</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D414" s="14">
+        <v>19000</v>
+      </c>
+      <c r="E414" s="26">
+        <v>0</v>
       </c>
       <c r="F414" s="6">
-        <f t="shared" ref="F414:F418" si="82">F413-D414+E414</f>
-        <v>64410.893792000192</v>
-      </c>
+        <f t="shared" si="81"/>
+        <v>42182.143792000192</v>
+      </c>
+      <c r="G414" s="25"/>
     </row>
     <row r="415" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B415" s="33">
-        <v>45905</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D415" s="5">
-        <v>0</v>
-      </c>
-      <c r="E415" s="5">
-        <v>1350</v>
-      </c>
-      <c r="F415" s="6">
-        <f t="shared" si="82"/>
-        <v>65760.893792000192</v>
-      </c>
+      <c r="A415" s="17"/>
+      <c r="B415" s="32">
+        <v>45903</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D415" s="14">
+        <v>0</v>
+      </c>
+      <c r="E415" s="26">
+        <v>0.51</v>
+      </c>
+      <c r="F415" s="9">
+        <f t="shared" ref="F415:F423" si="82">F414-D415+E415</f>
+        <v>42182.653792000194</v>
+      </c>
+      <c r="G415" s="25"/>
     </row>
     <row r="416" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B416" s="33">
         <v>45905</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D416" s="5">
         <v>0</v>
       </c>
       <c r="E416" s="5">
-        <v>12825</v>
+        <v>3228.75</v>
       </c>
       <c r="F416" s="6">
         <f t="shared" si="82"/>
-        <v>78585.893792000192</v>
+        <v>45411.403792000194</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9723,17 +9732,17 @@
         <v>45905</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="D417" s="5">
         <v>0</v>
       </c>
       <c r="E417" s="5">
-        <v>5760</v>
+        <v>1350</v>
       </c>
       <c r="F417" s="6">
         <f t="shared" si="82"/>
-        <v>84345.893792000192</v>
+        <v>46761.403792000194</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9741,17 +9750,17 @@
         <v>45905</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D418" s="5">
         <v>0</v>
       </c>
       <c r="E418" s="5">
-        <v>3863.25</v>
+        <v>12825</v>
       </c>
       <c r="F418" s="6">
         <f t="shared" si="82"/>
-        <v>88209.143792000192</v>
+        <v>59586.403792000194</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9759,62 +9768,170 @@
         <v>45905</v>
       </c>
       <c r="C419" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D419" s="5">
+        <v>0</v>
+      </c>
+      <c r="E419" s="5">
+        <v>5760</v>
+      </c>
+      <c r="F419" s="6">
+        <f t="shared" si="82"/>
+        <v>65346.403792000194</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B420" s="33">
+        <v>45905</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D420" s="5">
+        <v>0</v>
+      </c>
+      <c r="E420" s="5">
+        <v>3863.25</v>
+      </c>
+      <c r="F420" s="6">
+        <f t="shared" si="82"/>
+        <v>69209.653792000201</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B421" s="33">
+        <v>45905</v>
+      </c>
+      <c r="C421" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D419" s="5">
-        <v>0</v>
-      </c>
-      <c r="E419" s="5">
+      <c r="D421" s="5">
+        <v>0</v>
+      </c>
+      <c r="E421" s="5">
         <v>532.5</v>
       </c>
-      <c r="F419" s="6">
-        <f t="shared" ref="F419:F421" si="83">F418-D419+E419</f>
-        <v>88741.643792000192</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A420" s="32">
+      <c r="F421" s="6">
+        <f t="shared" si="82"/>
+        <v>69742.153792000201</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="32">
         <v>45903</v>
       </c>
-      <c r="B420" s="32">
+      <c r="B422" s="32">
         <v>45905</v>
       </c>
-      <c r="C420" s="8" t="s">
+      <c r="C422" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D420" s="14">
-        <v>0</v>
-      </c>
-      <c r="E420" s="7">
+      <c r="D422" s="14">
+        <v>0</v>
+      </c>
+      <c r="E422" s="7">
         <v>41407.730000000003</v>
       </c>
-      <c r="F420" s="6">
-        <f t="shared" si="83"/>
-        <v>130149.3737920002</v>
-      </c>
-      <c r="G420" s="25"/>
-    </row>
-    <row r="421" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A421" s="32">
+      <c r="F422" s="6">
+        <f t="shared" si="82"/>
+        <v>111149.88379200021</v>
+      </c>
+      <c r="G422" s="25"/>
+    </row>
+    <row r="423" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="32">
         <v>45903</v>
       </c>
-      <c r="B421" s="32">
+      <c r="B423" s="32">
         <v>45905</v>
       </c>
-      <c r="C421" s="4" t="s">
+      <c r="C423" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D421" s="5">
+      <c r="D423" s="5">
         <v>14.98</v>
       </c>
-      <c r="E421" s="5">
-        <v>0</v>
-      </c>
-      <c r="F421" s="6">
-        <f t="shared" si="83"/>
-        <v>130134.39379200021</v>
-      </c>
-      <c r="G421" s="25"/>
+      <c r="E423" s="5">
+        <v>0</v>
+      </c>
+      <c r="F423" s="6">
+        <f t="shared" si="82"/>
+        <v>111134.90379200022</v>
+      </c>
+      <c r="G423" s="25"/>
+    </row>
+    <row r="424" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B424" s="33">
+        <v>45909</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D424" s="5">
+        <v>0</v>
+      </c>
+      <c r="E424" s="5">
+        <v>9999</v>
+      </c>
+      <c r="F424" s="6">
+        <f t="shared" ref="F424" si="83">F423-D424+E424</f>
+        <v>121133.90379200022</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B425" s="33">
+        <v>45910</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D425" s="5">
+        <v>0</v>
+      </c>
+      <c r="E425" s="5">
+        <v>339.6</v>
+      </c>
+      <c r="F425" s="6">
+        <f t="shared" ref="F425:F427" si="84">F424-D425+E425</f>
+        <v>121473.50379200022</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B426" s="33">
+        <v>45910</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D426" s="5">
+        <v>0</v>
+      </c>
+      <c r="E426" s="5">
+        <v>19926</v>
+      </c>
+      <c r="F426" s="6">
+        <f t="shared" si="84"/>
+        <v>141399.50379200024</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B427" s="33">
+        <v>45910</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D427" s="5">
+        <v>0</v>
+      </c>
+      <c r="E427" s="5">
+        <v>1575</v>
+      </c>
+      <c r="F427" s="6">
+        <f t="shared" si="84"/>
+        <v>142974.50379200024</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="508" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5986881C-0ACF-4FDA-B38E-BCBD102C93B4}"/>
+  <xr:revisionPtr revIDLastSave="526" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47168759-DF10-4D29-AF28-08ADBB01616B}"/>
   <bookViews>
-    <workbookView xWindow="11976" yWindow="756" windowWidth="10128" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10848" yWindow="1068" windowWidth="10128" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="147">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -485,6 +485,12 @@
   </si>
   <si>
     <t>A/C</t>
+  </si>
+  <si>
+    <t>CPNREIT-Refund</t>
+  </si>
+  <si>
+    <t>CPNREIT-Pom</t>
   </si>
 </sst>
 </file>
@@ -944,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G427"/>
+  <dimension ref="A1:G432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F427" sqref="F427"/>
+      <pane ySplit="2" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D435" sqref="D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9931,6 +9937,96 @@
       <c r="F427" s="6">
         <f t="shared" si="84"/>
         <v>142974.50379200024</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B428" s="33">
+        <v>45911</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D428" s="5">
+        <v>0</v>
+      </c>
+      <c r="E428" s="5">
+        <v>1134</v>
+      </c>
+      <c r="F428" s="6">
+        <f t="shared" ref="F428" si="85">F427-D428+E428</f>
+        <v>144108.50379200024</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B429" s="33">
+        <v>45911</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D429" s="5">
+        <v>0</v>
+      </c>
+      <c r="E429" s="5">
+        <v>12202.65</v>
+      </c>
+      <c r="F429" s="6">
+        <f t="shared" ref="F429" si="86">F428-D429+E429</f>
+        <v>156311.15379200023</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B430" s="33">
+        <v>45911</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D430" s="5">
+        <v>0</v>
+      </c>
+      <c r="E430" s="5">
+        <v>16075.71</v>
+      </c>
+      <c r="F430" s="6">
+        <f t="shared" ref="F430" si="87">F429-D430+E430</f>
+        <v>172386.86379200022</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B431" s="33">
+        <v>45911</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D431" s="5">
+        <v>0</v>
+      </c>
+      <c r="E431" s="5">
+        <v>3468.1</v>
+      </c>
+      <c r="F431" s="6">
+        <f t="shared" ref="F431" si="88">F430-D431+E431</f>
+        <v>175854.96379200023</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B432" s="33">
+        <v>45911</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D432" s="5">
+        <v>5937.36</v>
+      </c>
+      <c r="E432" s="5">
+        <v>0</v>
+      </c>
+      <c r="F432" s="6">
+        <f t="shared" ref="F432" si="89">F431-D432+E432</f>
+        <v>169917.60379200024</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="526" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47168759-DF10-4D29-AF28-08ADBB01616B}"/>
+  <xr:revisionPtr revIDLastSave="536" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E25B54-9BFF-45ED-B870-7FBF6116C9AF}"/>
   <bookViews>
-    <workbookView xWindow="10848" yWindow="1068" windowWidth="10128" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12300" yWindow="1860" windowWidth="10704" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="147">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -950,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G432"/>
+  <dimension ref="A1:G435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D435" sqref="D435"/>
+      <pane ySplit="2" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A435" sqref="A435:B435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10025,9 +10025,75 @@
         <v>0</v>
       </c>
       <c r="F432" s="6">
-        <f t="shared" ref="F432" si="89">F431-D432+E432</f>
+        <f t="shared" ref="F432:F433" si="89">F431-D432+E432</f>
         <v>169917.60379200024</v>
       </c>
+    </row>
+    <row r="433" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="32">
+        <v>45908</v>
+      </c>
+      <c r="B433" s="32">
+        <v>45910</v>
+      </c>
+      <c r="C433" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D433" s="14">
+        <v>0</v>
+      </c>
+      <c r="E433" s="7">
+        <v>116740.86</v>
+      </c>
+      <c r="F433" s="6">
+        <f t="shared" si="89"/>
+        <v>286658.46379200026</v>
+      </c>
+      <c r="G433" s="25"/>
+    </row>
+    <row r="434" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="32">
+        <v>45908</v>
+      </c>
+      <c r="B434" s="32">
+        <v>45910</v>
+      </c>
+      <c r="C434" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D434" s="14">
+        <v>0</v>
+      </c>
+      <c r="E434" s="7">
+        <v>27139.52</v>
+      </c>
+      <c r="F434" s="6">
+        <f t="shared" ref="F434:F435" si="90">F433-D434+E434</f>
+        <v>313797.98379200028</v>
+      </c>
+      <c r="G434" s="25"/>
+    </row>
+    <row r="435" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="32">
+        <v>45908</v>
+      </c>
+      <c r="B435" s="32">
+        <v>45910</v>
+      </c>
+      <c r="C435" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D435" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E435" s="5">
+        <v>0</v>
+      </c>
+      <c r="F435" s="6">
+        <f t="shared" si="90"/>
+        <v>313783.00379200029</v>
+      </c>
+      <c r="G435" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="536" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E25B54-9BFF-45ED-B870-7FBF6116C9AF}"/>
+  <xr:revisionPtr revIDLastSave="543" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E1D7336-F254-40D3-A8AD-A83C4762660B}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="1860" windowWidth="10704" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11988" yWindow="0" windowWidth="10332" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="147">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -950,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G435"/>
+  <dimension ref="A1:G437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A435" sqref="A435:B435"/>
+      <selection pane="bottomLeft" activeCell="E436" sqref="E436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10094,6 +10094,50 @@
         <v>313783.00379200029</v>
       </c>
       <c r="G435" s="25"/>
+    </row>
+    <row r="436" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="32">
+        <v>45909</v>
+      </c>
+      <c r="B436" s="32">
+        <v>45911</v>
+      </c>
+      <c r="C436" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D436" s="14">
+        <v>116256.93</v>
+      </c>
+      <c r="E436" s="7">
+        <v>0</v>
+      </c>
+      <c r="F436" s="6">
+        <f t="shared" ref="F436:F437" si="91">F435-D436+E436</f>
+        <v>197526.0737920003</v>
+      </c>
+      <c r="G436" s="25"/>
+    </row>
+    <row r="437" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="32">
+        <v>45909</v>
+      </c>
+      <c r="B437" s="32">
+        <v>45911</v>
+      </c>
+      <c r="C437" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D437" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E437" s="5">
+        <v>0</v>
+      </c>
+      <c r="F437" s="6">
+        <f t="shared" si="91"/>
+        <v>197511.09379200029</v>
+      </c>
+      <c r="G437" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="543" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E1D7336-F254-40D3-A8AD-A83C4762660B}"/>
+  <xr:revisionPtr revIDLastSave="545" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1173D314-51CA-4C0E-A053-259B173ACDD9}"/>
   <bookViews>
-    <workbookView xWindow="11988" yWindow="0" windowWidth="10332" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="372" yWindow="408" windowWidth="13176" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -953,8 +953,8 @@
   <dimension ref="A1:G437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E436" sqref="E436"/>
+      <pane ySplit="2" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -964,7 +964,7 @@
     <col min="4" max="4" width="16.375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="7" customWidth="1"/>
     <col min="6" max="6" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="10.125" style="3"/>
     <col min="12" max="12" width="10.25" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.125" style="3"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="545" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1173D314-51CA-4C0E-A053-259B173ACDD9}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A9DAAFE-FF32-4975-B26D-652C6FA8964B}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="408" windowWidth="13176" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11136" yWindow="240" windowWidth="10332" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="149">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>CPNREIT-Pom</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>CPF-Div</t>
   </si>
 </sst>
 </file>
@@ -950,11 +956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G437"/>
+  <dimension ref="A1:G445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <pane ySplit="2" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F443" sqref="F443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9710,7 +9716,7 @@
         <v>0.51</v>
       </c>
       <c r="F415" s="9">
-        <f t="shared" ref="F415:F423" si="82">F414-D415+E415</f>
+        <f t="shared" ref="F415:F430" si="82">F414-D415+E415</f>
         <v>42182.653792000194</v>
       </c>
       <c r="G415" s="25"/>
@@ -9738,17 +9744,17 @@
         <v>45905</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D417" s="5">
         <v>0</v>
       </c>
       <c r="E417" s="5">
-        <v>1350</v>
+        <v>3863.25</v>
       </c>
       <c r="F417" s="6">
         <f t="shared" si="82"/>
-        <v>46761.403792000194</v>
+        <v>49274.653792000194</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9756,17 +9762,17 @@
         <v>45905</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="D418" s="5">
         <v>0</v>
       </c>
       <c r="E418" s="5">
-        <v>12825</v>
+        <v>5760</v>
       </c>
       <c r="F418" s="6">
         <f t="shared" si="82"/>
-        <v>59586.403792000194</v>
+        <v>55034.653792000194</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9774,17 +9780,17 @@
         <v>45905</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="D419" s="5">
         <v>0</v>
       </c>
       <c r="E419" s="5">
-        <v>5760</v>
+        <v>1350</v>
       </c>
       <c r="F419" s="6">
         <f t="shared" si="82"/>
-        <v>65346.403792000194</v>
+        <v>56384.653792000194</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9792,13 +9798,13 @@
         <v>45905</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D420" s="5">
         <v>0</v>
       </c>
       <c r="E420" s="5">
-        <v>3863.25</v>
+        <v>12825</v>
       </c>
       <c r="F420" s="6">
         <f t="shared" si="82"/>
@@ -9881,7 +9887,7 @@
         <v>9999</v>
       </c>
       <c r="F424" s="6">
-        <f t="shared" ref="F424" si="83">F423-D424+E424</f>
+        <f t="shared" si="82"/>
         <v>121133.90379200022</v>
       </c>
     </row>
@@ -9890,17 +9896,17 @@
         <v>45910</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D425" s="5">
         <v>0</v>
       </c>
       <c r="E425" s="5">
-        <v>339.6</v>
+        <v>1575</v>
       </c>
       <c r="F425" s="6">
-        <f t="shared" ref="F425:F427" si="84">F424-D425+E425</f>
-        <v>121473.50379200022</v>
+        <f t="shared" si="82"/>
+        <v>122708.90379200022</v>
       </c>
     </row>
     <row r="426" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9917,8 +9923,8 @@
         <v>19926</v>
       </c>
       <c r="F426" s="6">
-        <f t="shared" si="84"/>
-        <v>141399.50379200024</v>
+        <f t="shared" si="82"/>
+        <v>142634.9037920002</v>
       </c>
     </row>
     <row r="427" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9926,196 +9932,194 @@
         <v>45910</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D427" s="5">
         <v>0</v>
       </c>
       <c r="E427" s="5">
-        <v>1575</v>
+        <v>339.6</v>
       </c>
       <c r="F427" s="6">
-        <f t="shared" si="84"/>
-        <v>142974.50379200024</v>
+        <f t="shared" si="82"/>
+        <v>142974.50379200021</v>
       </c>
     </row>
     <row r="428" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B428" s="33">
-        <v>45911</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D428" s="5">
-        <v>0</v>
-      </c>
-      <c r="E428" s="5">
-        <v>1134</v>
+      <c r="A428" s="32">
+        <v>45908</v>
+      </c>
+      <c r="B428" s="32">
+        <v>45910</v>
+      </c>
+      <c r="C428" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D428" s="14">
+        <v>0</v>
+      </c>
+      <c r="E428" s="7">
+        <v>116740.86</v>
       </c>
       <c r="F428" s="6">
-        <f t="shared" ref="F428" si="85">F427-D428+E428</f>
-        <v>144108.50379200024</v>
-      </c>
+        <f t="shared" si="82"/>
+        <v>259715.36379200022</v>
+      </c>
+      <c r="G428" s="25"/>
     </row>
     <row r="429" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B429" s="33">
-        <v>45911</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D429" s="5">
-        <v>0</v>
-      </c>
-      <c r="E429" s="5">
-        <v>12202.65</v>
+      <c r="A429" s="32">
+        <v>45908</v>
+      </c>
+      <c r="B429" s="32">
+        <v>45910</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D429" s="14">
+        <v>0</v>
+      </c>
+      <c r="E429" s="7">
+        <v>27139.52</v>
       </c>
       <c r="F429" s="6">
-        <f t="shared" ref="F429" si="86">F428-D429+E429</f>
-        <v>156311.15379200023</v>
-      </c>
+        <f t="shared" si="82"/>
+        <v>286854.88379200024</v>
+      </c>
+      <c r="G429" s="25"/>
     </row>
     <row r="430" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B430" s="33">
-        <v>45911</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>31</v>
+      <c r="A430" s="32">
+        <v>45908</v>
+      </c>
+      <c r="B430" s="32">
+        <v>45910</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D430" s="5">
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="E430" s="5">
-        <v>16075.71</v>
+        <v>0</v>
       </c>
       <c r="F430" s="6">
-        <f t="shared" ref="F430" si="87">F429-D430+E430</f>
-        <v>172386.86379200022</v>
-      </c>
+        <f t="shared" si="82"/>
+        <v>286839.90379200026</v>
+      </c>
+      <c r="G430" s="25"/>
     </row>
     <row r="431" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B431" s="33">
-        <v>45911</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D431" s="5">
-        <v>0</v>
-      </c>
-      <c r="E431" s="5">
-        <v>3468.1</v>
-      </c>
-      <c r="F431" s="6">
-        <f t="shared" ref="F431" si="88">F430-D431+E431</f>
-        <v>175854.96379200023</v>
-      </c>
+      <c r="A431" s="17"/>
+      <c r="B431" s="32">
+        <v>45910</v>
+      </c>
+      <c r="C431" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D431" s="14">
+        <v>0</v>
+      </c>
+      <c r="E431" s="26">
+        <v>0.59</v>
+      </c>
+      <c r="F431" s="9">
+        <f t="shared" ref="F431:F445" si="83">F430-D431+E431</f>
+        <v>286840.49379200028</v>
+      </c>
+      <c r="G431" s="25"/>
     </row>
     <row r="432" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="33">
         <v>45911</v>
       </c>
       <c r="C432" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D432" s="5">
+        <v>0</v>
+      </c>
+      <c r="E432" s="5">
+        <v>1134</v>
+      </c>
+      <c r="F432" s="6">
+        <f t="shared" si="83"/>
+        <v>287974.49379200028</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B433" s="33">
+        <v>45911</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D433" s="5">
+        <v>0</v>
+      </c>
+      <c r="E433" s="5">
+        <v>12202.65</v>
+      </c>
+      <c r="F433" s="6">
+        <f t="shared" si="83"/>
+        <v>300177.14379200031</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B434" s="33">
+        <v>45911</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D434" s="5">
+        <v>0</v>
+      </c>
+      <c r="E434" s="5">
+        <v>16075.71</v>
+      </c>
+      <c r="F434" s="6">
+        <f t="shared" si="83"/>
+        <v>316252.85379200033</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B435" s="33">
+        <v>45911</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D435" s="5">
+        <v>0</v>
+      </c>
+      <c r="E435" s="5">
+        <v>3468.1</v>
+      </c>
+      <c r="F435" s="6">
+        <f t="shared" si="83"/>
+        <v>319720.95379200031</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B436" s="33">
+        <v>45911</v>
+      </c>
+      <c r="C436" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D432" s="5">
+      <c r="D436" s="5">
         <v>5937.36</v>
       </c>
-      <c r="E432" s="5">
-        <v>0</v>
-      </c>
-      <c r="F432" s="6">
-        <f t="shared" ref="F432:F433" si="89">F431-D432+E432</f>
-        <v>169917.60379200024</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A433" s="32">
-        <v>45908</v>
-      </c>
-      <c r="B433" s="32">
-        <v>45910</v>
-      </c>
-      <c r="C433" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D433" s="14">
-        <v>0</v>
-      </c>
-      <c r="E433" s="7">
-        <v>116740.86</v>
-      </c>
-      <c r="F433" s="6">
-        <f t="shared" si="89"/>
-        <v>286658.46379200026</v>
-      </c>
-      <c r="G433" s="25"/>
-    </row>
-    <row r="434" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A434" s="32">
-        <v>45908</v>
-      </c>
-      <c r="B434" s="32">
-        <v>45910</v>
-      </c>
-      <c r="C434" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D434" s="14">
-        <v>0</v>
-      </c>
-      <c r="E434" s="7">
-        <v>27139.52</v>
-      </c>
-      <c r="F434" s="6">
-        <f t="shared" ref="F434:F435" si="90">F433-D434+E434</f>
-        <v>313797.98379200028</v>
-      </c>
-      <c r="G434" s="25"/>
-    </row>
-    <row r="435" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A435" s="32">
-        <v>45908</v>
-      </c>
-      <c r="B435" s="32">
-        <v>45910</v>
-      </c>
-      <c r="C435" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D435" s="5">
-        <v>14.98</v>
-      </c>
-      <c r="E435" s="5">
-        <v>0</v>
-      </c>
-      <c r="F435" s="6">
-        <f t="shared" si="90"/>
-        <v>313783.00379200029</v>
-      </c>
-      <c r="G435" s="25"/>
-    </row>
-    <row r="436" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A436" s="32">
-        <v>45909</v>
-      </c>
-      <c r="B436" s="32">
-        <v>45911</v>
-      </c>
-      <c r="C436" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D436" s="14">
-        <v>116256.93</v>
-      </c>
-      <c r="E436" s="7">
+      <c r="E436" s="5">
         <v>0</v>
       </c>
       <c r="F436" s="6">
-        <f t="shared" ref="F436:F437" si="91">F435-D436+E436</f>
-        <v>197526.0737920003</v>
-      </c>
-      <c r="G436" s="25"/>
+        <f t="shared" si="83"/>
+        <v>313783.59379200032</v>
+      </c>
     </row>
     <row r="437" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="32">
@@ -10124,20 +10128,178 @@
       <c r="B437" s="32">
         <v>45911</v>
       </c>
-      <c r="C437" s="4" t="s">
+      <c r="C437" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D437" s="14">
+        <v>116256.93</v>
+      </c>
+      <c r="E437" s="7">
+        <v>0</v>
+      </c>
+      <c r="F437" s="6">
+        <f t="shared" si="83"/>
+        <v>197526.66379200033</v>
+      </c>
+      <c r="G437" s="25"/>
+    </row>
+    <row r="438" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="32">
+        <v>45909</v>
+      </c>
+      <c r="B438" s="32">
+        <v>45911</v>
+      </c>
+      <c r="C438" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D437" s="5">
+      <c r="D438" s="5">
         <v>14.98</v>
       </c>
-      <c r="E437" s="5">
-        <v>0</v>
-      </c>
-      <c r="F437" s="6">
-        <f t="shared" si="91"/>
-        <v>197511.09379200029</v>
-      </c>
-      <c r="G437" s="25"/>
+      <c r="E438" s="5">
+        <v>0</v>
+      </c>
+      <c r="F438" s="6">
+        <f t="shared" si="83"/>
+        <v>197511.68379200032</v>
+      </c>
+      <c r="G438" s="25"/>
+    </row>
+    <row r="439" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="17"/>
+      <c r="B439" s="32">
+        <v>45911</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D439" s="14">
+        <v>1440</v>
+      </c>
+      <c r="E439" s="26">
+        <v>0</v>
+      </c>
+      <c r="F439" s="9">
+        <f t="shared" si="83"/>
+        <v>196071.68379200032</v>
+      </c>
+      <c r="G439" s="25"/>
+    </row>
+    <row r="440" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B440" s="33">
+        <v>45912</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D440" s="5">
+        <v>0</v>
+      </c>
+      <c r="E440" s="5">
+        <v>540</v>
+      </c>
+      <c r="F440" s="6">
+        <f t="shared" ref="F440:F442" si="84">F439-D440+E440</f>
+        <v>196611.68379200032</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B441" s="33">
+        <v>45912</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D441" s="5">
+        <v>0</v>
+      </c>
+      <c r="E441" s="5">
+        <v>907.2</v>
+      </c>
+      <c r="F441" s="6">
+        <f t="shared" si="84"/>
+        <v>197518.88379200033</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B442" s="33">
+        <v>45912</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D442" s="5">
+        <v>0</v>
+      </c>
+      <c r="E442" s="5">
+        <v>4500</v>
+      </c>
+      <c r="F442" s="6">
+        <f t="shared" si="84"/>
+        <v>202018.88379200033</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B443" s="33">
+        <v>45912</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D443" s="5">
+        <v>0</v>
+      </c>
+      <c r="E443" s="5">
+        <v>324</v>
+      </c>
+      <c r="F443" s="9">
+        <f t="shared" ref="F443:F445" si="85">F442-D443+E443</f>
+        <v>202342.88379200033</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="32">
+        <v>45911</v>
+      </c>
+      <c r="B444" s="32">
+        <v>45915</v>
+      </c>
+      <c r="C444" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D444" s="14">
+        <v>0</v>
+      </c>
+      <c r="E444" s="7">
+        <v>116740.86</v>
+      </c>
+      <c r="F444" s="6">
+        <f t="shared" si="85"/>
+        <v>319083.74379200034</v>
+      </c>
+      <c r="G444" s="25"/>
+    </row>
+    <row r="445" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="32">
+        <v>45911</v>
+      </c>
+      <c r="B445" s="32">
+        <v>45915</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D445" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E445" s="5">
+        <v>0</v>
+      </c>
+      <c r="F445" s="6">
+        <f t="shared" si="85"/>
+        <v>319068.76379200036</v>
+      </c>
+      <c r="G445" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A9DAAFE-FF32-4975-B26D-652C6FA8964B}"/>
+  <xr:revisionPtr revIDLastSave="611" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CAD5C60-E20B-4699-B2BD-44D0660647E0}"/>
   <bookViews>
-    <workbookView xWindow="11136" yWindow="240" windowWidth="10332" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11232" yWindow="492" windowWidth="11808" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="149">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -956,11 +956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G445"/>
+  <dimension ref="A1:G452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F443" sqref="F443"/>
+      <pane ySplit="2" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10026,7 +10026,7 @@
         <v>0.59</v>
       </c>
       <c r="F431" s="9">
-        <f t="shared" ref="F431:F445" si="83">F430-D431+E431</f>
+        <f t="shared" ref="F431:F439" si="83">F430-D431+E431</f>
         <v>286840.49379200028</v>
       </c>
       <c r="G431" s="25"/>
@@ -10253,31 +10253,27 @@
         <v>324</v>
       </c>
       <c r="F443" s="9">
-        <f t="shared" ref="F443:F445" si="85">F442-D443+E443</f>
+        <f t="shared" ref="F443:F446" si="85">F442-D443+E443</f>
         <v>202342.88379200033</v>
       </c>
     </row>
     <row r="444" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A444" s="32">
-        <v>45911</v>
-      </c>
       <c r="B444" s="32">
-        <v>45915</v>
-      </c>
-      <c r="C444" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D444" s="14">
-        <v>0</v>
-      </c>
-      <c r="E444" s="7">
-        <v>116740.86</v>
+        <v>45913</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D444" s="5">
+        <v>20</v>
+      </c>
+      <c r="E444" s="5">
+        <v>0</v>
       </c>
       <c r="F444" s="6">
         <f t="shared" si="85"/>
-        <v>319083.74379200034</v>
-      </c>
-      <c r="G444" s="25"/>
+        <v>202322.88379200033</v>
+      </c>
     </row>
     <row r="445" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="32">
@@ -10286,20 +10282,173 @@
       <c r="B445" s="32">
         <v>45915</v>
       </c>
-      <c r="C445" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D445" s="5">
-        <v>14.98</v>
-      </c>
-      <c r="E445" s="5">
-        <v>0</v>
+      <c r="C445" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D445" s="14">
+        <v>0</v>
+      </c>
+      <c r="E445" s="7">
+        <v>116740.86</v>
       </c>
       <c r="F445" s="6">
         <f t="shared" si="85"/>
-        <v>319068.76379200036</v>
+        <v>319063.74379200034</v>
       </c>
       <c r="G445" s="25"/>
+    </row>
+    <row r="446" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="32">
+        <v>45911</v>
+      </c>
+      <c r="B446" s="32">
+        <v>45915</v>
+      </c>
+      <c r="C446" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D446" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E446" s="5">
+        <v>0</v>
+      </c>
+      <c r="F446" s="6">
+        <f t="shared" si="85"/>
+        <v>319048.76379200036</v>
+      </c>
+      <c r="G446" s="25"/>
+    </row>
+    <row r="447" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="32">
+        <v>45915</v>
+      </c>
+      <c r="B447" s="32">
+        <v>45917</v>
+      </c>
+      <c r="C447" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D447" s="14">
+        <v>0</v>
+      </c>
+      <c r="E447" s="7">
+        <v>102771.87</v>
+      </c>
+      <c r="F447" s="6">
+        <f t="shared" ref="F447" si="86">F446-D447+E447</f>
+        <v>421820.63379200036</v>
+      </c>
+      <c r="G447" s="25"/>
+    </row>
+    <row r="448" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="32">
+        <v>45915</v>
+      </c>
+      <c r="B448" s="32">
+        <v>45917</v>
+      </c>
+      <c r="C448" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D448" s="14">
+        <v>0</v>
+      </c>
+      <c r="E448" s="7">
+        <v>48392.57</v>
+      </c>
+      <c r="F448" s="6">
+        <f t="shared" ref="F448" si="87">F447-D448+E448</f>
+        <v>470213.20379200036</v>
+      </c>
+      <c r="G448" s="25"/>
+    </row>
+    <row r="449" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="32">
+        <v>45915</v>
+      </c>
+      <c r="B449" s="32">
+        <v>45917</v>
+      </c>
+      <c r="C449" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D449" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E449" s="5">
+        <v>0</v>
+      </c>
+      <c r="F449" s="6">
+        <f t="shared" ref="F449:F452" si="88">F448-D449+E449</f>
+        <v>470198.22379200038</v>
+      </c>
+      <c r="G449" s="25"/>
+    </row>
+    <row r="450" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B450" s="32">
+        <v>45915</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D450" s="5">
+        <v>432</v>
+      </c>
+      <c r="E450" s="5">
+        <v>0</v>
+      </c>
+      <c r="F450" s="6">
+        <f t="shared" si="88"/>
+        <v>469766.22379200038</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="32">
+        <v>45916</v>
+      </c>
+      <c r="B451" s="32">
+        <v>45918</v>
+      </c>
+      <c r="C451" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D451" s="14">
+        <v>117760.26</v>
+      </c>
+      <c r="E451" s="7">
+        <v>0</v>
+      </c>
+      <c r="F451" s="6">
+        <f t="shared" si="88"/>
+        <v>352005.96379200037</v>
+      </c>
+      <c r="G451" s="25"/>
+    </row>
+    <row r="452" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A452" s="32">
+        <v>45916</v>
+      </c>
+      <c r="B452" s="32">
+        <v>45918</v>
+      </c>
+      <c r="C452" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D452" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E452" s="5">
+        <v>0</v>
+      </c>
+      <c r="F452" s="6">
+        <f t="shared" si="88"/>
+        <v>351990.98379200039</v>
+      </c>
+      <c r="G452" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="611" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CAD5C60-E20B-4699-B2BD-44D0660647E0}"/>
+  <xr:revisionPtr revIDLastSave="616" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49C0A4F5-772C-4ABE-B710-8683DA9BC775}"/>
   <bookViews>
-    <workbookView xWindow="11232" yWindow="492" windowWidth="11808" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5304" yWindow="492" windowWidth="17736" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="149">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -663,10 +663,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -956,11 +952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G452"/>
+  <dimension ref="A1:G454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D452" sqref="D452"/>
+      <selection pane="bottomLeft" activeCell="E453" sqref="E453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10449,6 +10445,50 @@
         <v>351990.98379200039</v>
       </c>
       <c r="G452" s="25"/>
+    </row>
+    <row r="453" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A453" s="32">
+        <v>45917</v>
+      </c>
+      <c r="B453" s="32">
+        <v>45919</v>
+      </c>
+      <c r="C453" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D453" s="14">
+        <v>116758.04</v>
+      </c>
+      <c r="E453" s="7">
+        <v>0</v>
+      </c>
+      <c r="F453" s="6">
+        <f t="shared" ref="F453:F454" si="89">F452-D453+E453</f>
+        <v>235232.94379200041</v>
+      </c>
+      <c r="G453" s="25"/>
+    </row>
+    <row r="454" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="32">
+        <v>45917</v>
+      </c>
+      <c r="B454" s="32">
+        <v>45919</v>
+      </c>
+      <c r="C454" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D454" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E454" s="5">
+        <v>0</v>
+      </c>
+      <c r="F454" s="6">
+        <f t="shared" si="89"/>
+        <v>235217.9637920004</v>
+      </c>
+      <c r="G454" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="616" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49C0A4F5-772C-4ABE-B710-8683DA9BC775}"/>
+  <xr:revisionPtr revIDLastSave="621" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{234D2849-428A-4BE3-A59B-5E117714DAD0}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="492" windowWidth="17736" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9132" yWindow="540" windowWidth="10068" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="149">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -663,6 +663,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -952,11 +956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G454"/>
+  <dimension ref="A1:G456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E453" sqref="E453"/>
+      <pane ySplit="2" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D456" sqref="D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10463,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="F453" s="6">
-        <f t="shared" ref="F453:F454" si="89">F452-D453+E453</f>
+        <f t="shared" ref="F453:F456" si="89">F452-D453+E453</f>
         <v>235232.94379200041</v>
       </c>
       <c r="G453" s="25"/>
@@ -10489,6 +10493,50 @@
         <v>235217.9637920004</v>
       </c>
       <c r="G454" s="25"/>
+    </row>
+    <row r="455" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="32">
+        <v>45919</v>
+      </c>
+      <c r="B455" s="32">
+        <v>45923</v>
+      </c>
+      <c r="C455" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D455" s="14">
+        <v>82682.73</v>
+      </c>
+      <c r="E455" s="7">
+        <v>0</v>
+      </c>
+      <c r="F455" s="6">
+        <f t="shared" si="89"/>
+        <v>152535.23379200039</v>
+      </c>
+      <c r="G455" s="25"/>
+    </row>
+    <row r="456" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A456" s="32">
+        <v>45919</v>
+      </c>
+      <c r="B456" s="32">
+        <v>45923</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D456" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E456" s="5">
+        <v>0</v>
+      </c>
+      <c r="F456" s="6">
+        <f t="shared" si="89"/>
+        <v>152520.25379200038</v>
+      </c>
+      <c r="G456" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="621" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{234D2849-428A-4BE3-A59B-5E117714DAD0}"/>
+  <xr:revisionPtr revIDLastSave="646" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A53CD2C0-250D-4366-827C-DDECF0029B57}"/>
   <bookViews>
-    <workbookView xWindow="9132" yWindow="540" windowWidth="10068" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9876" yWindow="1560" windowWidth="10356" windowHeight="10404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="149">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -956,11 +956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G456"/>
+  <dimension ref="A1:G463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D456" sqref="D456"/>
+      <pane ySplit="2" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A463" sqref="A463:B463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="F453" s="6">
-        <f t="shared" ref="F453:F456" si="89">F452-D453+E453</f>
+        <f t="shared" ref="F453:F459" si="89">F452-D453+E453</f>
         <v>235232.94379200041</v>
       </c>
       <c r="G453" s="25"/>
@@ -10537,6 +10537,160 @@
         <v>152520.25379200038</v>
       </c>
       <c r="G456" s="25"/>
+    </row>
+    <row r="457" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B457" s="32">
+        <v>45932</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D457" s="5">
+        <v>2651.49</v>
+      </c>
+      <c r="E457" s="5">
+        <v>0</v>
+      </c>
+      <c r="F457" s="6">
+        <f t="shared" si="89"/>
+        <v>149868.76379200039</v>
+      </c>
+      <c r="G457" s="25"/>
+    </row>
+    <row r="458" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="32">
+        <v>45931</v>
+      </c>
+      <c r="B458" s="32">
+        <v>45933</v>
+      </c>
+      <c r="C458" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D458" s="14">
+        <v>26258.03</v>
+      </c>
+      <c r="E458" s="7">
+        <v>0</v>
+      </c>
+      <c r="F458" s="6">
+        <f t="shared" si="89"/>
+        <v>123610.73379200039</v>
+      </c>
+      <c r="G458" s="25"/>
+    </row>
+    <row r="459" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A459" s="32">
+        <v>45931</v>
+      </c>
+      <c r="B459" s="32">
+        <v>45933</v>
+      </c>
+      <c r="C459" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D459" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E459" s="5">
+        <v>0</v>
+      </c>
+      <c r="F459" s="6">
+        <f t="shared" si="89"/>
+        <v>123595.7537920004</v>
+      </c>
+      <c r="G459" s="25"/>
+    </row>
+    <row r="460" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A460" s="32">
+        <v>45936</v>
+      </c>
+      <c r="B460" s="32">
+        <v>45938</v>
+      </c>
+      <c r="C460" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D460" s="14">
+        <v>78172.759999999995</v>
+      </c>
+      <c r="E460" s="7">
+        <v>0</v>
+      </c>
+      <c r="F460" s="6">
+        <f t="shared" ref="F460:F462" si="90">F459-D460+E460</f>
+        <v>45422.993792000401</v>
+      </c>
+      <c r="G460" s="25"/>
+    </row>
+    <row r="461" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A461" s="32">
+        <v>45936</v>
+      </c>
+      <c r="B461" s="32">
+        <v>45938</v>
+      </c>
+      <c r="C461" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D461" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E461" s="5">
+        <v>0</v>
+      </c>
+      <c r="F461" s="6">
+        <f t="shared" si="90"/>
+        <v>45408.013792000398</v>
+      </c>
+      <c r="G461" s="25"/>
+    </row>
+    <row r="462" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A462" s="32">
+        <v>45937</v>
+      </c>
+      <c r="B462" s="32">
+        <v>45939</v>
+      </c>
+      <c r="C462" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D462" s="14">
+        <v>0</v>
+      </c>
+      <c r="E462" s="7">
+        <v>79323.91</v>
+      </c>
+      <c r="F462" s="6">
+        <f t="shared" si="90"/>
+        <v>124731.92379200039</v>
+      </c>
+      <c r="G462" s="25"/>
+    </row>
+    <row r="463" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="32">
+        <v>45937</v>
+      </c>
+      <c r="B463" s="32">
+        <v>45939</v>
+      </c>
+      <c r="C463" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D463" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E463" s="5">
+        <v>0</v>
+      </c>
+      <c r="F463" s="6">
+        <f t="shared" ref="F463" si="91">F462-D463+E463</f>
+        <v>124716.9437920004</v>
+      </c>
+      <c r="G463" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Excel/01-CashFlow.xlsx
+++ b/Excel/01-CashFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="646" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A53CD2C0-250D-4366-827C-DDECF0029B57}"/>
+  <xr:revisionPtr revIDLastSave="691" documentId="13_ncr:1_{B3FB09C8-509C-4800-A6F5-97AF885696E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C09C243-2C1F-493A-B9D0-897DD5605178}"/>
   <bookViews>
-    <workbookView xWindow="9876" yWindow="1560" windowWidth="10356" windowHeight="10404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="216" windowWidth="10104" windowHeight="10404" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIB" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="150">
   <si>
     <t>TRANSACT</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>CPF-Div</t>
+  </si>
+  <si>
+    <t>PTT-Div</t>
   </si>
 </sst>
 </file>
@@ -956,11 +959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G463"/>
+  <dimension ref="A1:G472"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A463" sqref="A463:B463"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F468" sqref="F468:F472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10253,7 +10256,7 @@
         <v>324</v>
       </c>
       <c r="F443" s="9">
-        <f t="shared" ref="F443:F446" si="85">F442-D443+E443</f>
+        <f t="shared" ref="F443:F445" si="85">F442-D443+E443</f>
         <v>202342.88379200033</v>
       </c>
     </row>
@@ -10276,55 +10279,47 @@
       </c>
     </row>
     <row r="445" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A445" s="32">
-        <v>45911</v>
-      </c>
-      <c r="B445" s="32">
+      <c r="B445" s="33">
         <v>45915</v>
       </c>
-      <c r="C445" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D445" s="14">
-        <v>0</v>
-      </c>
-      <c r="E445" s="7">
-        <v>116740.86</v>
+      <c r="C445" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D445" s="5">
+        <v>0</v>
+      </c>
+      <c r="E445" s="5">
+        <v>5962.5</v>
       </c>
       <c r="F445" s="6">
         <f t="shared" si="85"/>
-        <v>319063.74379200034</v>
-      </c>
-      <c r="G445" s="25"/>
+        <v>208285.38379200033</v>
+      </c>
     </row>
     <row r="446" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A446" s="32">
-        <v>45911</v>
-      </c>
-      <c r="B446" s="32">
+      <c r="B446" s="33">
         <v>45915</v>
       </c>
-      <c r="C446" s="4" t="s">
-        <v>11</v>
+      <c r="C446" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D446" s="5">
-        <v>14.98</v>
+        <v>0</v>
       </c>
       <c r="E446" s="5">
-        <v>0</v>
+        <v>2256</v>
       </c>
       <c r="F446" s="6">
-        <f t="shared" si="85"/>
-        <v>319048.76379200036</v>
-      </c>
-      <c r="G446" s="25"/>
+        <f t="shared" ref="F446:F472" si="86">F445-D446+E446</f>
+        <v>210541.38379200033</v>
+      </c>
     </row>
     <row r="447" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="32">
+        <v>45911</v>
+      </c>
+      <c r="B447" s="32">
         <v>45915</v>
-      </c>
-      <c r="B447" s="32">
-        <v>45917</v>
       </c>
       <c r="C447" s="8" t="s">
         <v>139</v>
@@ -10333,107 +10328,107 @@
         <v>0</v>
       </c>
       <c r="E447" s="7">
-        <v>102771.87</v>
+        <v>116740.86</v>
       </c>
       <c r="F447" s="6">
-        <f t="shared" ref="F447" si="86">F446-D447+E447</f>
-        <v>421820.63379200036</v>
+        <f t="shared" si="86"/>
+        <v>327282.24379200034</v>
       </c>
       <c r="G447" s="25"/>
     </row>
     <row r="448" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="32">
+        <v>45911</v>
+      </c>
+      <c r="B448" s="32">
         <v>45915</v>
       </c>
-      <c r="B448" s="32">
+      <c r="C448" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D448" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E448" s="5">
+        <v>0</v>
+      </c>
+      <c r="F448" s="6">
+        <f t="shared" si="86"/>
+        <v>327267.26379200036</v>
+      </c>
+      <c r="G448" s="25"/>
+    </row>
+    <row r="449" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B449" s="32">
+        <v>45915</v>
+      </c>
+      <c r="C449" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D449" s="5">
+        <v>432</v>
+      </c>
+      <c r="E449" s="5">
+        <v>0</v>
+      </c>
+      <c r="F449" s="6">
+        <f t="shared" si="86"/>
+        <v>326835.26379200036</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="32">
+        <v>45915</v>
+      </c>
+      <c r="B450" s="32">
         <v>45917</v>
       </c>
-      <c r="C448" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D448" s="14">
-        <v>0</v>
-      </c>
-      <c r="E448" s="7">
-        <v>48392.57</v>
-      </c>
-      <c r="F448" s="6">
-        <f t="shared" ref="F448" si="87">F447-D448+E448</f>
-        <v>470213.20379200036</v>
-      </c>
-      <c r="G448" s="25"/>
-    </row>
-    <row r="449" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A449" s="32">
-        <v>45915</v>
-      </c>
-      <c r="B449" s="32">
-        <v>45917</v>
-      </c>
-      <c r="C449" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D449" s="5">
-        <v>14.98</v>
-      </c>
-      <c r="E449" s="5">
-        <v>0</v>
-      </c>
-      <c r="F449" s="6">
-        <f t="shared" ref="F449:F452" si="88">F448-D449+E449</f>
-        <v>470198.22379200038</v>
-      </c>
-      <c r="G449" s="25"/>
-    </row>
-    <row r="450" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A450" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B450" s="32">
-        <v>45915</v>
-      </c>
-      <c r="C450" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D450" s="5">
-        <v>432</v>
-      </c>
-      <c r="E450" s="5">
-        <v>0</v>
+      <c r="C450" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D450" s="14">
+        <v>0</v>
+      </c>
+      <c r="E450" s="7">
+        <v>102771.87</v>
       </c>
       <c r="F450" s="6">
-        <f t="shared" si="88"/>
-        <v>469766.22379200038</v>
-      </c>
+        <f t="shared" si="86"/>
+        <v>429607.13379200036</v>
+      </c>
+      <c r="G450" s="25"/>
     </row>
     <row r="451" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="32">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="B451" s="32">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="D451" s="14">
-        <v>117760.26</v>
+        <v>0</v>
       </c>
       <c r="E451" s="7">
-        <v>0</v>
+        <v>48392.57</v>
       </c>
       <c r="F451" s="6">
-        <f t="shared" si="88"/>
-        <v>352005.96379200037</v>
+        <f t="shared" si="86"/>
+        <v>477999.70379200036</v>
       </c>
       <c r="G451" s="25"/>
     </row>
     <row r="452" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="32">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="B452" s="32">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>11</v>
@@ -10445,39 +10440,39 @@
         <v>0</v>
       </c>
       <c r="F452" s="6">
-        <f t="shared" si="88"/>
-        <v>351990.98379200039</v>
+        <f t="shared" si="86"/>
+        <v>477984.72379200038</v>
       </c>
       <c r="G452" s="25"/>
     </row>
     <row r="453" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="32">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="B453" s="32">
-        <v>45919</v>
+        <v>45918</v>
       </c>
       <c r="C453" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D453" s="14">
-        <v>116758.04</v>
+        <v>117760.26</v>
       </c>
       <c r="E453" s="7">
         <v>0</v>
       </c>
       <c r="F453" s="6">
-        <f t="shared" ref="F453:F459" si="89">F452-D453+E453</f>
-        <v>235232.94379200041</v>
+        <f t="shared" si="86"/>
+        <v>360224.46379200037</v>
       </c>
       <c r="G453" s="25"/>
     </row>
     <row r="454" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="32">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="B454" s="32">
-        <v>45919</v>
+        <v>45918</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>11</v>
@@ -10489,39 +10484,39 @@
         <v>0</v>
       </c>
       <c r="F454" s="6">
-        <f t="shared" si="89"/>
-        <v>235217.9637920004</v>
+        <f t="shared" si="86"/>
+        <v>360209.48379200039</v>
       </c>
       <c r="G454" s="25"/>
     </row>
     <row r="455" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="32">
+        <v>45917</v>
+      </c>
+      <c r="B455" s="32">
         <v>45919</v>
       </c>
-      <c r="B455" s="32">
-        <v>45923</v>
-      </c>
       <c r="C455" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D455" s="14">
-        <v>82682.73</v>
+        <v>116758.04</v>
       </c>
       <c r="E455" s="7">
         <v>0</v>
       </c>
       <c r="F455" s="6">
-        <f t="shared" si="89"/>
-        <v>152535.23379200039</v>
+        <f t="shared" si="86"/>
+        <v>243451.44379200041</v>
       </c>
       <c r="G455" s="25"/>
     </row>
     <row r="456" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="32">
+        <v>45917</v>
+      </c>
+      <c r="B456" s="32">
         <v>45919</v>
-      </c>
-      <c r="B456" s="32">
-        <v>45923</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>11</v>
@@ -10533,105 +10528,105 @@
         <v>0</v>
       </c>
       <c r="F456" s="6">
-        <f t="shared" si="89"/>
-        <v>152520.25379200038</v>
+        <f t="shared" si="86"/>
+        <v>243436.4637920004</v>
       </c>
       <c r="G456" s="25"/>
     </row>
     <row r="457" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A457" s="32" t="s">
-        <v>6</v>
+      <c r="A457" s="32">
+        <v>45919</v>
       </c>
       <c r="B457" s="32">
-        <v>45932</v>
-      </c>
-      <c r="C457" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D457" s="5">
-        <v>2651.49</v>
-      </c>
-      <c r="E457" s="5">
+        <v>45923</v>
+      </c>
+      <c r="C457" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D457" s="14">
+        <v>82682.73</v>
+      </c>
+      <c r="E457" s="7">
         <v>0</v>
       </c>
       <c r="F457" s="6">
-        <f t="shared" si="89"/>
-        <v>149868.76379200039</v>
+        <f t="shared" si="86"/>
+        <v>160753.73379200039</v>
       </c>
       <c r="G457" s="25"/>
     </row>
     <row r="458" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="32">
-        <v>45931</v>
+        <v>45919</v>
       </c>
       <c r="B458" s="32">
-        <v>45933</v>
-      </c>
-      <c r="C458" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D458" s="14">
-        <v>26258.03</v>
-      </c>
-      <c r="E458" s="7">
+        <v>45923</v>
+      </c>
+      <c r="C458" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D458" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E458" s="5">
         <v>0</v>
       </c>
       <c r="F458" s="6">
-        <f t="shared" si="89"/>
-        <v>123610.73379200039</v>
+        <f t="shared" si="86"/>
+        <v>160738.75379200038</v>
       </c>
       <c r="G458" s="25"/>
     </row>
     <row r="459" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A459" s="32">
-        <v>45931</v>
+      <c r="A459" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="B459" s="32">
-        <v>45933</v>
+        <v>45932</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D459" s="5">
-        <v>14.98</v>
+        <v>2651.49</v>
       </c>
       <c r="E459" s="5">
         <v>0</v>
       </c>
       <c r="F459" s="6">
-        <f t="shared" si="89"/>
-        <v>123595.7537920004</v>
+        <f t="shared" si="86"/>
+        <v>158087.26379200039</v>
       </c>
       <c r="G459" s="25"/>
     </row>
     <row r="460" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="32">
-        <v>45936</v>
+        <v>45931</v>
       </c>
       <c r="B460" s="32">
-        <v>45938</v>
+        <v>45933</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="D460" s="14">
-        <v>78172.759999999995</v>
+        <v>26258.03</v>
       </c>
       <c r="E460" s="7">
         <v>0</v>
       </c>
       <c r="F460" s="6">
-        <f t="shared" ref="F460:F462" si="90">F459-D460+E460</f>
-        <v>45422.993792000401</v>
+        <f t="shared" si="86"/>
+        <v>131829.23379200039</v>
       </c>
       <c r="G460" s="25"/>
     </row>
     <row r="461" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="32">
-        <v>45936</v>
+        <v>45931</v>
       </c>
       <c r="B461" s="32">
-        <v>45938</v>
+        <v>45933</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>11</v>
@@ -10643,54 +10638,242 @@
         <v>0</v>
       </c>
       <c r="F461" s="6">
-        <f t="shared" si="90"/>
-        <v>45408.013792000398</v>
+        <f t="shared" si="86"/>
+        <v>131814.25379200038</v>
       </c>
       <c r="G461" s="25"/>
     </row>
     <row r="462" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A462" s="32">
-        <v>45937</v>
-      </c>
+      <c r="A462" s="32"/>
       <c r="B462" s="32">
-        <v>45939</v>
-      </c>
-      <c r="C462" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D462" s="14">
-        <v>0</v>
-      </c>
-      <c r="E462" s="7">
-        <v>79323.91</v>
+        <v>45938</v>
+      </c>
+      <c r="C462" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D462" s="5">
+        <v>2564.5300000000002</v>
+      </c>
+      <c r="E462" s="5">
+        <v>0</v>
       </c>
       <c r="F462" s="6">
-        <f t="shared" si="90"/>
-        <v>124731.92379200039</v>
+        <f t="shared" si="86"/>
+        <v>129249.72379200038</v>
       </c>
       <c r="G462" s="25"/>
     </row>
     <row r="463" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="32">
+        <v>45936</v>
+      </c>
+      <c r="B463" s="32">
+        <v>45938</v>
+      </c>
+      <c r="C463" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D463" s="14">
+        <v>78172.759999999995</v>
+      </c>
+      <c r="E463" s="7">
+        <v>0</v>
+      </c>
+      <c r="F463" s="6">
+        <f t="shared" si="86"/>
+        <v>51076.963792000388</v>
+      </c>
+      <c r="G463" s="25"/>
+    </row>
+    <row r="464" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A464" s="32">
+        <v>45936</v>
+      </c>
+      <c r="B464" s="32">
+        <v>45938</v>
+      </c>
+      <c r="C464" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D464" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E464" s="5">
+        <v>0</v>
+      </c>
+      <c r="F464" s="6">
+        <f t="shared" si="86"/>
+        <v>51061.983792000385</v>
+      </c>
+      <c r="G464" s="25"/>
+    </row>
+    <row r="465" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A465" s="32">
         <v>45937</v>
       </c>
-      <c r="B463" s="32">
+      <c r="B465" s="32">
         <v>45939</v>
       </c>
-      <c r="C463" s="4" t="s">
+      <c r="C465" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D465" s="14">
+        <v>0</v>
+      </c>
+      <c r="E465" s="7">
+        <v>79323.91</v>
+      </c>
+      <c r="F465" s="6">
+        <f t="shared" si="86"/>
+        <v>130385.8937920004</v>
+      </c>
+      <c r="G465" s="25"/>
+    </row>
+    <row r="466" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A466" s="32">
+        <v>45937</v>
+      </c>
+      <c r="B466" s="32">
+        <v>45939</v>
+      </c>
+      <c r="C466" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D463" s="5">
+      <c r="D466" s="5">
         <v>14.98</v>
       </c>
-      <c r="E463" s="5">
-        <v>0</v>
-      </c>
-      <c r="F463" s="6">
-        <f t="shared" ref="F463" si="91">F462-D463+E463</f>
-        <v>124716.9437920004</v>
-      </c>
-      <c r="G463" s="25"/>
+      <c r="E466" s="5">
+        <v>0</v>
+      </c>
+      <c r="F466" s="6">
+        <f t="shared" si="86"/>
+        <v>130370.9137920004</v>
+      </c>
+      <c r="G466" s="25"/>
+    </row>
+    <row r="467" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B467" s="32">
+        <v>45941</v>
+      </c>
+      <c r="C467" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D467" s="5">
+        <v>20</v>
+      </c>
+      <c r="E467" s="5">
+        <v>0</v>
+      </c>
+      <c r="F467" s="9">
+        <f t="shared" si="86"/>
+        <v>130350.9137920004</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A468" s="32">
+        <v>45944</v>
+      </c>
+      <c r="B468" s="32">
+        <v>45946</v>
+      </c>
+      <c r="C468" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D468" s="14">
+        <v>30868.22</v>
+      </c>
+      <c r="E468" s="7">
+        <v>0</v>
+      </c>
+      <c r="F468" s="6">
+        <f t="shared" si="86"/>
+        <v>99482.693792000398</v>
+      </c>
+      <c r="G468" s="25"/>
+    </row>
+    <row r="469" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A469" s="32">
+        <v>45944</v>
+      </c>
+      <c r="B469" s="32">
+        <v>45946</v>
+      </c>
+      <c r="C469" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D469" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E469" s="5">
+        <v>0</v>
+      </c>
+      <c r="F469" s="6">
+        <f t="shared" si="86"/>
+        <v>99467.713792000402</v>
+      </c>
+      <c r="G469" s="25"/>
+    </row>
+    <row r="470" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B470" s="33">
+        <v>45947</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D470" s="5">
+        <v>0</v>
+      </c>
+      <c r="E470" s="5">
+        <v>6075</v>
+      </c>
+      <c r="F470" s="6">
+        <f t="shared" si="86"/>
+        <v>105542.7137920004</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A471" s="32">
+        <v>45946</v>
+      </c>
+      <c r="B471" s="32">
+        <v>45950</v>
+      </c>
+      <c r="C471" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D471" s="14">
+        <v>77671.66</v>
+      </c>
+      <c r="E471" s="7">
+        <v>0</v>
+      </c>
+      <c r="F471" s="6">
+        <f t="shared" si="86"/>
+        <v>27871.053792000399</v>
+      </c>
+      <c r="G471" s="25"/>
+    </row>
+    <row r="472" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A472" s="32">
+        <v>45946</v>
+      </c>
+      <c r="B472" s="32">
+        <v>45950</v>
+      </c>
+      <c r="C472" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D472" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E472" s="5">
+        <v>0</v>
+      </c>
+      <c r="F472" s="6">
+        <f t="shared" si="86"/>
+        <v>27856.073792000399</v>
+      </c>
+      <c r="G472" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12403,8 +12586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782AAFCC-E79F-444F-B038-6AE18F9C4D1A}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -12414,6 +12597,7 @@
     <col min="3" max="3" width="11.125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="13" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
